--- a/output/revenue_template_v1final312.xlsx
+++ b/output/revenue_template_v1final312.xlsx
@@ -11902,8 +11902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="R69" sqref="R69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12018,15 +12018,15 @@
         <v>152</v>
       </c>
       <c r="L2" s="95">
-        <v>3670</v>
+        <v>3030</v>
       </c>
       <c r="M2" s="96">
         <f ref="M2:M33" si="1" t="shared">((E2-L2)/E2)*100</f>
-        <v>47.571428571428569</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="N2" s="97">
         <f ref="N2:N33" si="2" t="shared">((G2-L2)/G2)*100</f>
-        <v>19.517543859649123</v>
+        <v>33.55263157894737</v>
       </c>
       <c r="O2" s="98">
         <v>3</v>
@@ -12073,15 +12073,15 @@
         <v>170</v>
       </c>
       <c r="L3" s="110">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M3" s="111">
         <f si="1" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N3" s="112">
         <f si="2" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O3" s="113">
         <v>2</v>
@@ -12093,10 +12093,10 @@
         <v>182</v>
       </c>
       <c r="R3" s="1626">
-        <v>54.714285714285715</v>
+        <v>63.857142857142854</v>
       </c>
       <c r="S3" s="1627">
-        <v>30.482456140350877</v>
+        <v>44.517543859649123</v>
       </c>
       <c r="T3" s="1604" t="s">
         <v>171</v>
@@ -12105,11 +12105,11 @@
         <v>1000</v>
       </c>
       <c r="V3" s="1606">
-        <v>670</v>
+        <v>30</v>
       </c>
       <c r="W3" s="1607">
         <f>U3+V3</f>
-        <v>1670</v>
+        <v>1030</v>
       </c>
     </row>
     <row ht="30" r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -12144,15 +12144,15 @@
         <v>152</v>
       </c>
       <c r="L4" s="129">
-        <v>3670</v>
+        <v>3030</v>
       </c>
       <c r="M4" s="130">
         <f si="1" t="shared"/>
-        <v>47.571428571428569</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="N4" s="131">
         <f si="2" t="shared"/>
-        <v>19.517543859649123</v>
+        <v>33.55263157894737</v>
       </c>
       <c r="O4" s="132">
         <v>3</v>
@@ -12164,10 +12164,10 @@
         <v>184</v>
       </c>
       <c r="R4" s="1628">
-        <v>47.571428571428569</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="S4" s="1629">
-        <v>19.517543859649123</v>
+        <v>33.55263157894737</v>
       </c>
       <c r="T4" s="1608" t="s">
         <v>170</v>
@@ -12176,11 +12176,11 @@
         <v>2000</v>
       </c>
       <c r="V4" s="1610">
-        <v>670</v>
+        <v>30</v>
       </c>
       <c r="W4" s="1611">
         <f>U4+V4</f>
-        <v>2670</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -12215,15 +12215,15 @@
         <v>172</v>
       </c>
       <c r="L5" s="146">
-        <v>5170</v>
+        <v>4530</v>
       </c>
       <c r="M5" s="147">
         <f si="1" t="shared"/>
-        <v>26.142857142857146</v>
+        <v>35.285714285714285</v>
       </c>
       <c r="N5" s="148">
         <f si="2" t="shared"/>
-        <v>-13.37719298245614</v>
+        <v>0.6578947368421052</v>
       </c>
       <c r="O5" s="149">
         <v>5</v>
@@ -12235,10 +12235,10 @@
         <v>186</v>
       </c>
       <c r="R5" s="1630">
-        <v>26.142857142857146</v>
+        <v>35.285714285714285</v>
       </c>
       <c r="S5" s="1631">
-        <v>-13.37719298245614</v>
+        <v>0.6578947368421052</v>
       </c>
       <c r="T5" s="1612" t="s">
         <v>152</v>
@@ -12247,11 +12247,11 @@
         <v>3000</v>
       </c>
       <c r="V5" s="1614">
-        <v>670</v>
+        <v>30</v>
       </c>
       <c r="W5" s="1615">
         <f>U5+V5</f>
-        <v>3670</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -12286,15 +12286,15 @@
         <v>171</v>
       </c>
       <c r="L6" s="163">
-        <v>1670</v>
+        <v>1030</v>
       </c>
       <c r="M6" s="164">
         <f si="1" t="shared"/>
-        <v>76.142857142857139</v>
+        <v>85.285714285714292</v>
       </c>
       <c r="N6" s="165">
         <f si="2" t="shared"/>
-        <v>63.377192982456144</v>
+        <v>77.412280701754383</v>
       </c>
       <c r="O6" s="166">
         <v>1</v>
@@ -12306,10 +12306,10 @@
         <v>188</v>
       </c>
       <c r="R6" s="1632">
-        <v>76.142857142857139</v>
+        <v>85.285714285714292</v>
       </c>
       <c r="S6" s="1633">
-        <v>63.377192982456144</v>
+        <v>77.412280701754383</v>
       </c>
       <c r="T6" s="1616" t="s">
         <v>173</v>
@@ -12318,11 +12318,11 @@
         <v>4000</v>
       </c>
       <c r="V6" s="1618">
-        <v>670</v>
+        <v>30</v>
       </c>
       <c r="W6" s="1619">
         <f>U6+V6</f>
-        <v>4670</v>
+        <v>4030</v>
       </c>
     </row>
     <row ht="30" r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -12357,15 +12357,15 @@
         <v>173</v>
       </c>
       <c r="L7" s="180">
-        <v>4670</v>
+        <v>4030</v>
       </c>
       <c r="M7" s="181">
         <f si="1" t="shared"/>
-        <v>33.285714285714285</v>
+        <v>42.428571428571423</v>
       </c>
       <c r="N7" s="182">
         <f si="2" t="shared"/>
-        <v>-2.4122807017543857</v>
+        <v>11.62280701754386</v>
       </c>
       <c r="O7" s="183">
         <v>4</v>
@@ -12383,11 +12383,11 @@
         <v>4500</v>
       </c>
       <c r="V7" s="1622">
-        <v>670</v>
+        <v>30</v>
       </c>
       <c r="W7" s="1623">
         <f>U7+V7</f>
-        <v>5170</v>
+        <v>4530</v>
       </c>
     </row>
     <row ht="30" r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -12423,15 +12423,15 @@
         <v>152</v>
       </c>
       <c r="L8" s="195">
-        <v>3670</v>
+        <v>3030</v>
       </c>
       <c r="M8" s="196">
         <f si="1" t="shared"/>
-        <v>47.571428571428569</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="N8" s="197">
         <f si="2" t="shared"/>
-        <v>19.517543859649123</v>
+        <v>33.55263157894737</v>
       </c>
       <c r="O8" s="198">
         <v>3</v>
@@ -12482,15 +12482,15 @@
         <v>152</v>
       </c>
       <c r="L9" s="210">
-        <v>3670</v>
+        <v>3030</v>
       </c>
       <c r="M9" s="211">
         <f si="1" t="shared"/>
-        <v>47.571428571428569</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="N9" s="212">
         <f si="2" t="shared"/>
-        <v>19.517543859649123</v>
+        <v>33.55263157894737</v>
       </c>
       <c r="O9" s="213">
         <v>3</v>
@@ -12640,15 +12640,15 @@
         <v>170</v>
       </c>
       <c r="L12" s="257">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M12" s="258">
         <f si="1" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N12" s="259">
         <f si="2" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O12" s="260">
         <v>2</v>
@@ -12692,15 +12692,15 @@
         <v>173</v>
       </c>
       <c r="L13" s="272">
-        <v>4670</v>
+        <v>4030</v>
       </c>
       <c r="M13" s="273">
         <f si="1" t="shared"/>
-        <v>33.285714285714285</v>
+        <v>42.428571428571423</v>
       </c>
       <c r="N13" s="274">
         <f si="2" t="shared"/>
-        <v>-2.4122807017543857</v>
+        <v>11.62280701754386</v>
       </c>
       <c r="O13" s="275">
         <v>4</v>
@@ -12744,15 +12744,15 @@
         <v>170</v>
       </c>
       <c r="L14" s="287">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M14" s="288">
         <f si="1" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N14" s="289">
         <f si="2" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O14" s="290">
         <v>2</v>
@@ -12796,15 +12796,15 @@
         <v>173</v>
       </c>
       <c r="L15" s="302">
-        <v>4670</v>
+        <v>4030</v>
       </c>
       <c r="M15" s="303">
         <f si="1" t="shared"/>
-        <v>33.285714285714285</v>
+        <v>42.428571428571423</v>
       </c>
       <c r="N15" s="304">
         <f si="2" t="shared"/>
-        <v>-2.4122807017543857</v>
+        <v>11.62280701754386</v>
       </c>
       <c r="O15" s="305">
         <v>4</v>
@@ -12848,15 +12848,15 @@
         <v>171</v>
       </c>
       <c r="L16" s="317">
-        <v>1670</v>
+        <v>1030</v>
       </c>
       <c r="M16" s="318">
         <f si="1" t="shared"/>
-        <v>76.142857142857139</v>
+        <v>85.285714285714292</v>
       </c>
       <c r="N16" s="319">
         <f si="2" t="shared"/>
-        <v>63.377192982456144</v>
+        <v>77.412280701754383</v>
       </c>
       <c r="O16" s="320">
         <v>1</v>
@@ -12900,15 +12900,15 @@
         <v>170</v>
       </c>
       <c r="L17" s="332">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M17" s="333">
         <f si="1" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N17" s="334">
         <f si="2" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O17" s="335">
         <v>2</v>
@@ -12952,15 +12952,15 @@
         <v>152</v>
       </c>
       <c r="L18" s="347">
-        <v>3670</v>
+        <v>3030</v>
       </c>
       <c r="M18" s="348">
         <f si="1" t="shared"/>
-        <v>47.571428571428569</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="N18" s="349">
         <f si="2" t="shared"/>
-        <v>19.517543859649123</v>
+        <v>33.55263157894737</v>
       </c>
       <c r="O18" s="350">
         <v>3</v>
@@ -13004,15 +13004,15 @@
         <v>170</v>
       </c>
       <c r="L19" s="362">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M19" s="363">
         <f si="1" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N19" s="364">
         <f si="2" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O19" s="365">
         <v>2</v>
@@ -13024,10 +13024,10 @@
         <v>196</v>
       </c>
       <c r="R19" s="1634">
-        <v>58.934065934065941</v>
+        <v>66.670329670329679</v>
       </c>
       <c r="S19" s="1635">
-        <v>36.960188933873148</v>
+        <v>48.836032388663966</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -13062,15 +13062,15 @@
         <v>170</v>
       </c>
       <c r="L20" s="403">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M20" s="404">
         <f si="1" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N20" s="405">
         <f si="2" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O20" s="406">
         <v>2</v>
@@ -13114,15 +13114,15 @@
         <v>152</v>
       </c>
       <c r="L21" s="418">
-        <v>3670</v>
+        <v>3030</v>
       </c>
       <c r="M21" s="419">
         <f si="1" t="shared"/>
-        <v>47.571428571428569</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="N21" s="420">
         <f si="2" t="shared"/>
-        <v>19.517543859649123</v>
+        <v>33.55263157894737</v>
       </c>
       <c r="O21" s="421">
         <v>3</v>
@@ -13166,15 +13166,15 @@
         <v>170</v>
       </c>
       <c r="L22" s="433">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M22" s="434">
         <f si="1" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N22" s="435">
         <f si="2" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O22" s="436">
         <v>2</v>
@@ -13218,15 +13218,15 @@
         <v>173</v>
       </c>
       <c r="L23" s="448">
-        <v>4670</v>
+        <v>4030</v>
       </c>
       <c r="M23" s="449">
         <f si="1" t="shared"/>
-        <v>33.285714285714285</v>
+        <v>42.428571428571423</v>
       </c>
       <c r="N23" s="450">
         <f si="2" t="shared"/>
-        <v>-2.4122807017543857</v>
+        <v>11.62280701754386</v>
       </c>
       <c r="O23" s="451">
         <v>4</v>
@@ -13271,15 +13271,15 @@
         <v>170</v>
       </c>
       <c r="L24" s="463">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M24" s="464">
         <f si="1" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N24" s="465">
         <f si="2" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O24" s="466">
         <v>2</v>
@@ -13324,15 +13324,15 @@
         <v>170</v>
       </c>
       <c r="L25" s="478">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M25" s="479">
         <f si="1" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N25" s="480">
         <f si="2" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O25" s="481">
         <v>2</v>
@@ -13377,15 +13377,15 @@
         <v>170</v>
       </c>
       <c r="L26" s="493">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M26" s="494">
         <f si="1" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N26" s="495">
         <f si="2" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O26" s="496">
         <v>2</v>
@@ -13429,15 +13429,15 @@
         <v>171</v>
       </c>
       <c r="L27" s="508">
-        <v>1670</v>
+        <v>1030</v>
       </c>
       <c r="M27" s="509">
         <f si="1" t="shared"/>
-        <v>76.142857142857139</v>
+        <v>85.285714285714292</v>
       </c>
       <c r="N27" s="510">
         <f si="2" t="shared"/>
-        <v>63.377192982456144</v>
+        <v>77.412280701754383</v>
       </c>
       <c r="O27" s="511">
         <v>1</v>
@@ -13449,10 +13449,10 @@
         <v>200</v>
       </c>
       <c r="R27" s="1636">
-        <v>58.285714285714285</v>
+        <v>67.428571428571431</v>
       </c>
       <c r="S27" s="1637">
-        <v>35.964912280701753</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -13487,15 +13487,15 @@
         <v>171</v>
       </c>
       <c r="L28" s="539">
-        <v>1670</v>
+        <v>1030</v>
       </c>
       <c r="M28" s="540">
         <f si="1" t="shared"/>
-        <v>76.142857142857139</v>
+        <v>85.285714285714292</v>
       </c>
       <c r="N28" s="541">
         <f si="2" t="shared"/>
-        <v>63.377192982456144</v>
+        <v>77.412280701754383</v>
       </c>
       <c r="O28" s="542">
         <v>1</v>
@@ -13539,15 +13539,15 @@
         <v>173</v>
       </c>
       <c r="L29" s="554">
-        <v>4670</v>
+        <v>4030</v>
       </c>
       <c r="M29" s="555">
         <f si="1" t="shared"/>
-        <v>33.285714285714285</v>
+        <v>42.428571428571423</v>
       </c>
       <c r="N29" s="556">
         <f si="2" t="shared"/>
-        <v>-2.4122807017543857</v>
+        <v>11.62280701754386</v>
       </c>
       <c r="O29" s="557">
         <v>4</v>
@@ -13591,15 +13591,15 @@
         <v>152</v>
       </c>
       <c r="L30" s="569">
-        <v>3670</v>
+        <v>3030</v>
       </c>
       <c r="M30" s="570">
         <f si="1" t="shared"/>
-        <v>47.571428571428569</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="N30" s="571">
         <f si="2" t="shared"/>
-        <v>19.517543859649123</v>
+        <v>33.55263157894737</v>
       </c>
       <c r="O30" s="572">
         <v>3</v>
@@ -13643,15 +13643,15 @@
         <v>170</v>
       </c>
       <c r="L31" s="584">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M31" s="585">
         <f si="1" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N31" s="586">
         <f si="2" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O31" s="587">
         <v>2</v>
@@ -13663,10 +13663,10 @@
         <v>182</v>
       </c>
       <c r="R31" s="1638">
-        <v>54.714285714285715</v>
+        <v>63.857142857142854</v>
       </c>
       <c r="S31" s="1639">
-        <v>30.482456140350877</v>
+        <v>44.517543859649123</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -13701,15 +13701,15 @@
         <v>170</v>
       </c>
       <c r="L32" s="607">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M32" s="608">
         <f si="1" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N32" s="609">
         <f si="2" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O32" s="610">
         <v>2</v>
@@ -13753,15 +13753,15 @@
         <v>171</v>
       </c>
       <c r="L33" s="622">
-        <v>1670</v>
+        <v>1030</v>
       </c>
       <c r="M33" s="623">
         <f si="1" t="shared"/>
-        <v>76.142857142857139</v>
+        <v>85.285714285714292</v>
       </c>
       <c r="N33" s="624">
         <f si="2" t="shared"/>
-        <v>63.377192982456144</v>
+        <v>77.412280701754383</v>
       </c>
       <c r="O33" s="625">
         <v>1</v>
@@ -13773,10 +13773,10 @@
         <v>201</v>
       </c>
       <c r="R33" s="1640">
-        <v>69</v>
+        <v>78.142857142857153</v>
       </c>
       <c r="S33" s="1641">
-        <v>52.412280701754391</v>
+        <v>66.44736842105263</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -13811,15 +13811,15 @@
         <v>170</v>
       </c>
       <c r="L34" s="641">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M34" s="642">
         <f ref="M34:M65" si="5" t="shared">((E34-L34)/E34)*100</f>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N34" s="643">
         <f ref="N34:N65" si="6" t="shared">((G34-L34)/G34)*100</f>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O34" s="644">
         <v>2</v>
@@ -13831,10 +13831,10 @@
         <v>203</v>
       </c>
       <c r="R34" s="1642">
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="S34" s="1643">
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -13870,15 +13870,15 @@
         <v>152</v>
       </c>
       <c r="L35" s="658">
-        <v>3670</v>
+        <v>3030</v>
       </c>
       <c r="M35" s="659">
         <f si="5" t="shared"/>
-        <v>47.571428571428569</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="N35" s="660">
         <f si="6" t="shared"/>
-        <v>19.517543859649123</v>
+        <v>33.55263157894737</v>
       </c>
       <c r="O35" s="661">
         <v>3</v>
@@ -13923,15 +13923,15 @@
         <v>152</v>
       </c>
       <c r="L36" s="673">
-        <v>3670</v>
+        <v>3030</v>
       </c>
       <c r="M36" s="674">
         <f si="5" t="shared"/>
-        <v>47.571428571428569</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="N36" s="675">
         <f si="6" t="shared"/>
-        <v>19.517543859649123</v>
+        <v>33.55263157894737</v>
       </c>
       <c r="O36" s="676">
         <v>3</v>
@@ -13975,15 +13975,15 @@
         <v>170</v>
       </c>
       <c r="L37" s="688">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M37" s="689">
         <f si="5" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N37" s="690">
         <f si="6" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O37" s="691">
         <v>2</v>
@@ -13995,10 +13995,10 @@
         <v>205</v>
       </c>
       <c r="R37" s="1644">
-        <v>52.333333333333329</v>
+        <v>61.476190476190474</v>
       </c>
       <c r="S37" s="1645">
-        <v>26.827485380116961</v>
+        <v>40.862573099415208</v>
       </c>
     </row>
     <row customFormat="1" r="38" s="699" spans="1:19" x14ac:dyDescent="0.25">
@@ -14085,15 +14085,15 @@
         <v>170</v>
       </c>
       <c r="L39" s="725">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M39" s="726">
         <f si="5" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N39" s="727">
         <f si="6" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O39" s="728">
         <v>2</v>
@@ -14137,15 +14137,15 @@
         <v>152</v>
       </c>
       <c r="L40" s="740">
-        <v>3670</v>
+        <v>3030</v>
       </c>
       <c r="M40" s="741">
         <f si="5" t="shared"/>
-        <v>47.571428571428569</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="N40" s="742">
         <f si="6" t="shared"/>
-        <v>19.517543859649123</v>
+        <v>33.55263157894737</v>
       </c>
       <c r="O40" s="743">
         <v>3</v>
@@ -14157,10 +14157,10 @@
         <v>206</v>
       </c>
       <c r="R40" s="1646">
-        <v>69.80952380952381</v>
+        <v>75.904761904761912</v>
       </c>
       <c r="S40" s="1647">
-        <v>53.654970760233923</v>
+        <v>63.011695906432749</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -14195,15 +14195,15 @@
         <v>152</v>
       </c>
       <c r="L41" s="761">
-        <v>3670</v>
+        <v>3030</v>
       </c>
       <c r="M41" s="762">
         <f si="5" t="shared"/>
-        <v>47.571428571428569</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="N41" s="763">
         <f si="6" t="shared"/>
-        <v>19.517543859649123</v>
+        <v>33.55263157894737</v>
       </c>
       <c r="O41" s="764">
         <v>3</v>
@@ -14215,10 +14215,10 @@
         <v>184</v>
       </c>
       <c r="R41" s="1648">
-        <v>47.571428571428569</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="S41" s="1649">
-        <v>19.517543859649123</v>
+        <v>33.55263157894737</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -14253,15 +14253,15 @@
         <v>170</v>
       </c>
       <c r="L42" s="778">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M42" s="779">
         <f si="5" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N42" s="780">
         <f si="6" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O42" s="781">
         <v>2</v>
@@ -14305,15 +14305,15 @@
         <v>152</v>
       </c>
       <c r="L43" s="793">
-        <v>3670</v>
+        <v>3030</v>
       </c>
       <c r="M43" s="794">
         <f si="5" t="shared"/>
-        <v>47.571428571428569</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="N43" s="795">
         <f si="6" t="shared"/>
-        <v>19.517543859649123</v>
+        <v>33.55263157894737</v>
       </c>
       <c r="O43" s="796">
         <v>3</v>
@@ -14325,10 +14325,10 @@
         <v>182</v>
       </c>
       <c r="R43" s="1650">
-        <v>54.714285714285715</v>
+        <v>63.857142857142854</v>
       </c>
       <c r="S43" s="1651">
-        <v>30.482456140350877</v>
+        <v>44.517543859649123</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -14363,15 +14363,15 @@
         <v>152</v>
       </c>
       <c r="L44" s="812">
-        <v>3670</v>
+        <v>3030</v>
       </c>
       <c r="M44" s="813">
         <f si="5" t="shared"/>
-        <v>47.571428571428569</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="N44" s="814">
         <f si="6" t="shared"/>
-        <v>19.517543859649123</v>
+        <v>33.55263157894737</v>
       </c>
       <c r="O44" s="815">
         <v>3</v>
@@ -14416,15 +14416,15 @@
         <v>170</v>
       </c>
       <c r="L45" s="827">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M45" s="828">
         <f si="5" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N45" s="829">
         <f si="6" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O45" s="830">
         <v>2</v>
@@ -14469,15 +14469,15 @@
         <v>170</v>
       </c>
       <c r="L46" s="842">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M46" s="843">
         <f si="5" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N46" s="844">
         <f si="6" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O46" s="845">
         <v>2</v>
@@ -14489,10 +14489,10 @@
         <v>206</v>
       </c>
       <c r="R46" s="1652">
-        <v>57.095238095238102</v>
+        <v>66.238095238095241</v>
       </c>
       <c r="S46" s="1653">
-        <v>34.137426900584792</v>
+        <v>48.172514619883039</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -14527,15 +14527,15 @@
         <v>170</v>
       </c>
       <c r="L47" s="863">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M47" s="864">
         <f si="5" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N47" s="865">
         <f si="6" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O47" s="866">
         <v>2</v>
@@ -14547,10 +14547,10 @@
         <v>203</v>
       </c>
       <c r="R47" s="1654">
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="S47" s="1655">
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -14585,15 +14585,15 @@
         <v>170</v>
       </c>
       <c r="L48" s="880">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M48" s="881">
         <f si="5" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N48" s="882">
         <f si="6" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O48" s="883">
         <v>2</v>
@@ -14605,10 +14605,10 @@
         <v>203</v>
       </c>
       <c r="R48" s="1656">
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="S48" s="1657">
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -14643,15 +14643,15 @@
         <v>152</v>
       </c>
       <c r="L49" s="897">
-        <v>3670</v>
+        <v>3030</v>
       </c>
       <c r="M49" s="898">
         <f si="5" t="shared"/>
-        <v>47.571428571428569</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="N49" s="899">
         <f si="6" t="shared"/>
-        <v>19.517543859649123</v>
+        <v>33.55263157894737</v>
       </c>
       <c r="O49" s="900">
         <v>3</v>
@@ -14695,15 +14695,15 @@
         <v>170</v>
       </c>
       <c r="L50" s="912">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M50" s="913">
         <f si="5" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N50" s="914">
         <f si="6" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O50" s="915">
         <v>2</v>
@@ -14747,15 +14747,15 @@
         <v>171</v>
       </c>
       <c r="L51" s="927">
-        <v>1670</v>
+        <v>1030</v>
       </c>
       <c r="M51" s="928">
         <f si="5" t="shared"/>
-        <v>76.142857142857139</v>
+        <v>85.285714285714292</v>
       </c>
       <c r="N51" s="929">
         <f si="6" t="shared"/>
-        <v>63.377192982456144</v>
+        <v>77.412280701754383</v>
       </c>
       <c r="O51" s="930">
         <v>1</v>
@@ -14767,10 +14767,10 @@
         <v>203</v>
       </c>
       <c r="R51" s="1658">
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="S51" s="1659">
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -14805,15 +14805,15 @@
         <v>152</v>
       </c>
       <c r="L52" s="948">
-        <v>3670</v>
+        <v>3030</v>
       </c>
       <c r="M52" s="949">
         <f si="5" t="shared"/>
-        <v>47.571428571428569</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="N52" s="950">
         <f si="6" t="shared"/>
-        <v>19.517543859649123</v>
+        <v>33.55263157894737</v>
       </c>
       <c r="O52" s="951">
         <v>3</v>
@@ -14857,15 +14857,15 @@
         <v>170</v>
       </c>
       <c r="L53" s="963">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M53" s="964">
         <f si="5" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N53" s="965">
         <f si="6" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O53" s="966">
         <v>2</v>
@@ -14877,10 +14877,10 @@
         <v>182</v>
       </c>
       <c r="R53" s="1660">
-        <v>54.714285714285715</v>
+        <v>63.857142857142854</v>
       </c>
       <c r="S53" s="1661">
-        <v>30.482456140350877</v>
+        <v>44.517543859649123</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
@@ -14915,15 +14915,15 @@
         <v>152</v>
       </c>
       <c r="L54" s="982">
-        <v>3670</v>
+        <v>3030</v>
       </c>
       <c r="M54" s="983">
         <f si="5" t="shared"/>
-        <v>47.571428571428569</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="N54" s="984">
         <f si="6" t="shared"/>
-        <v>19.517543859649123</v>
+        <v>33.55263157894737</v>
       </c>
       <c r="O54" s="985">
         <v>3</v>
@@ -14968,15 +14968,15 @@
         <v>170</v>
       </c>
       <c r="L55" s="997">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M55" s="998">
         <f si="5" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N55" s="999">
         <f si="6" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O55" s="1000">
         <v>2</v>
@@ -15021,15 +15021,15 @@
         <v>170</v>
       </c>
       <c r="L56" s="1012">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M56" s="1013">
         <f si="5" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N56" s="1014">
         <f si="6" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O56" s="1015">
         <v>2</v>
@@ -15073,15 +15073,15 @@
         <v>170</v>
       </c>
       <c r="L57" s="1027">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M57" s="1028">
         <f si="5" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N57" s="1029">
         <f si="6" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O57" s="1030">
         <v>2</v>
@@ -15125,15 +15125,15 @@
         <v>170</v>
       </c>
       <c r="L58" s="1042">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M58" s="1043">
         <f si="5" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N58" s="1044">
         <f si="6" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O58" s="1045">
         <v>2</v>
@@ -15177,15 +15177,15 @@
         <v>173</v>
       </c>
       <c r="L59" s="1057">
-        <v>4670</v>
+        <v>4030</v>
       </c>
       <c r="M59" s="1058">
         <f si="5" t="shared"/>
-        <v>33.285714285714285</v>
+        <v>42.428571428571423</v>
       </c>
       <c r="N59" s="1059">
         <f si="6" t="shared"/>
-        <v>-2.4122807017543857</v>
+        <v>11.62280701754386</v>
       </c>
       <c r="O59" s="1060">
         <v>4</v>
@@ -15229,15 +15229,15 @@
         <v>171</v>
       </c>
       <c r="L60" s="1072">
-        <v>1670</v>
+        <v>1030</v>
       </c>
       <c r="M60" s="1073">
         <f si="5" t="shared"/>
-        <v>76.142857142857139</v>
+        <v>85.285714285714292</v>
       </c>
       <c r="N60" s="1074">
         <f si="6" t="shared"/>
-        <v>63.377192982456144</v>
+        <v>77.412280701754383</v>
       </c>
       <c r="O60" s="1075">
         <v>1</v>
@@ -15249,10 +15249,10 @@
         <v>209</v>
       </c>
       <c r="R60" s="1662">
-        <v>57.775510204081634</v>
+        <v>66.91836734693878</v>
       </c>
       <c r="S60" s="1663">
-        <v>35.181704260651628</v>
+        <v>49.216791979949875</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -15287,15 +15287,15 @@
         <v>170</v>
       </c>
       <c r="L61" s="1101">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M61" s="1102">
         <f si="5" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N61" s="1103">
         <f si="6" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O61" s="1104">
         <v>2</v>
@@ -15340,15 +15340,15 @@
         <v>170</v>
       </c>
       <c r="L62" s="1116">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M62" s="1117">
         <f si="5" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N62" s="1118">
         <f si="6" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O62" s="1119">
         <v>2</v>
@@ -15393,15 +15393,15 @@
         <v>170</v>
       </c>
       <c r="L63" s="1131">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M63" s="1132">
         <f si="5" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N63" s="1133">
         <f si="6" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O63" s="1134">
         <v>2</v>
@@ -15413,10 +15413,10 @@
         <v>203</v>
       </c>
       <c r="R63" s="1664">
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="S63" s="1665">
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -15451,15 +15451,15 @@
         <v>170</v>
       </c>
       <c r="L64" s="1152">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M64" s="1153">
         <f si="5" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N64" s="1154">
         <f si="6" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O64" s="1155">
         <v>2</v>
@@ -15471,10 +15471,10 @@
         <v>203</v>
       </c>
       <c r="R64" s="1666">
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="S64" s="1667">
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -15510,15 +15510,15 @@
         <v>170</v>
       </c>
       <c r="L65" s="1169">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M65" s="1170">
         <f si="5" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N65" s="1171">
         <f si="6" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O65" s="1172">
         <v>2</v>
@@ -15563,15 +15563,15 @@
         <v>170</v>
       </c>
       <c r="L66" s="1184">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M66" s="1185">
         <f ref="M66:M97" si="9" t="shared">((E66-L66)/E66)*100</f>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N66" s="1186">
         <f ref="N66:N88" si="10" t="shared">((G66-L66)/G66)*100</f>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O66" s="1187">
         <v>2</v>
@@ -15583,10 +15583,10 @@
         <v>203</v>
       </c>
       <c r="R66" s="1668">
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="S66" s="1669">
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -15621,15 +15621,15 @@
         <v>152</v>
       </c>
       <c r="L67" s="1203">
-        <v>3670</v>
+        <v>3030</v>
       </c>
       <c r="M67" s="1204">
         <f si="9" t="shared"/>
-        <v>47.571428571428569</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="N67" s="1205">
         <f si="10" t="shared"/>
-        <v>19.517543859649123</v>
+        <v>33.55263157894737</v>
       </c>
       <c r="O67" s="1206">
         <v>3</v>
@@ -15641,10 +15641,10 @@
         <v>184</v>
       </c>
       <c r="R67" s="1670">
-        <v>47.571428571428569</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="S67" s="1671">
-        <v>19.517543859649123</v>
+        <v>33.55263157894737</v>
       </c>
     </row>
     <row customFormat="1" r="68" s="1210" spans="1:19" x14ac:dyDescent="0.25">
@@ -15731,15 +15731,15 @@
         <v>171</v>
       </c>
       <c r="L69" s="1236">
-        <v>1670</v>
+        <v>1030</v>
       </c>
       <c r="M69" s="1237">
         <f si="9" t="shared"/>
-        <v>76.142857142857139</v>
+        <v>85.285714285714292</v>
       </c>
       <c r="N69" s="1238">
         <f si="10" t="shared"/>
-        <v>63.377192982456144</v>
+        <v>77.412280701754383</v>
       </c>
       <c r="O69" s="1239">
         <v>1</v>
@@ -15751,10 +15751,10 @@
         <v>203</v>
       </c>
       <c r="R69" s="1672">
-        <v>88.071428571428569</v>
+        <v>92.642857142857139</v>
       </c>
       <c r="S69" s="1673">
-        <v>81.688596491228068</v>
+        <v>88.706140350877192</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -15790,15 +15790,15 @@
         <v>170</v>
       </c>
       <c r="L70" s="1255">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M70" s="1256">
         <f si="9" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N70" s="1257">
         <f si="10" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O70" s="1258">
         <v>2</v>
@@ -15843,15 +15843,15 @@
         <v>170</v>
       </c>
       <c r="L71" s="1270">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M71" s="1271">
         <f si="9" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N71" s="1272">
         <f si="10" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O71" s="1273">
         <v>2</v>
@@ -15863,10 +15863,10 @@
         <v>203</v>
       </c>
       <c r="R71" s="1674">
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="S71" s="1675">
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
@@ -15901,15 +15901,15 @@
         <v>152</v>
       </c>
       <c r="L72" s="1289">
-        <v>3670</v>
+        <v>3030</v>
       </c>
       <c r="M72" s="1290">
         <f si="9" t="shared"/>
-        <v>47.571428571428569</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="N72" s="1291">
         <f si="10" t="shared"/>
-        <v>19.517543859649123</v>
+        <v>33.55263157894737</v>
       </c>
       <c r="O72" s="1292">
         <v>3</v>
@@ -15953,15 +15953,15 @@
         <v>171</v>
       </c>
       <c r="L73" s="1304">
-        <v>1670</v>
+        <v>1030</v>
       </c>
       <c r="M73" s="1305">
         <f si="9" t="shared"/>
-        <v>76.142857142857139</v>
+        <v>85.285714285714292</v>
       </c>
       <c r="N73" s="1306">
         <f si="10" t="shared"/>
-        <v>63.377192982456144</v>
+        <v>77.412280701754383</v>
       </c>
       <c r="O73" s="1307">
         <v>1</v>
@@ -15973,10 +15973,10 @@
         <v>203</v>
       </c>
       <c r="R73" s="1676">
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="S73" s="1677">
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
@@ -16011,15 +16011,15 @@
         <v>170</v>
       </c>
       <c r="L74" s="1323">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M74" s="1324">
         <f si="9" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N74" s="1325">
         <f si="10" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O74" s="1326">
         <v>2</v>
@@ -16064,15 +16064,15 @@
         <v>171</v>
       </c>
       <c r="L75" s="1338">
-        <v>1670</v>
+        <v>1030</v>
       </c>
       <c r="M75" s="1339">
         <f si="9" t="shared"/>
-        <v>76.142857142857139</v>
+        <v>85.285714285714292</v>
       </c>
       <c r="N75" s="1340">
         <f si="10" t="shared"/>
-        <v>63.377192982456144</v>
+        <v>77.412280701754383</v>
       </c>
       <c r="O75" s="1341">
         <v>1</v>
@@ -16117,15 +16117,15 @@
         <v>171</v>
       </c>
       <c r="L76" s="1353">
-        <v>1670</v>
+        <v>1030</v>
       </c>
       <c r="M76" s="1354">
         <f si="9" t="shared"/>
-        <v>76.142857142857139</v>
+        <v>85.285714285714292</v>
       </c>
       <c r="N76" s="1355">
         <f si="10" t="shared"/>
-        <v>63.377192982456144</v>
+        <v>77.412280701754383</v>
       </c>
       <c r="O76" s="1356">
         <v>1</v>
@@ -16137,10 +16137,10 @@
         <v>213</v>
       </c>
       <c r="R76" s="1678">
-        <v>71.38095238095238</v>
+        <v>80.523809523809518</v>
       </c>
       <c r="S76" s="1679">
-        <v>56.067251461988299</v>
+        <v>70.102339181286553</v>
       </c>
     </row>
     <row customFormat="1" r="77" s="1364" spans="1:19" x14ac:dyDescent="0.25">
@@ -16227,15 +16227,15 @@
         <v>170</v>
       </c>
       <c r="L78" s="1390">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M78" s="1391">
         <f si="9" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N78" s="1392">
         <f si="10" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O78" s="1393">
         <v>2</v>
@@ -16247,10 +16247,10 @@
         <v>201</v>
       </c>
       <c r="R78" s="1680">
-        <v>80.928571428571431</v>
+        <v>85.5</v>
       </c>
       <c r="S78" s="1681">
-        <v>70.723684210526315</v>
+        <v>77.741228070175438</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
@@ -16285,15 +16285,15 @@
         <v>170</v>
       </c>
       <c r="L79" s="1409">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M79" s="1410">
         <f si="9" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N79" s="1411">
         <f si="10" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O79" s="1412">
         <v>2</v>
@@ -16305,10 +16305,10 @@
         <v>203</v>
       </c>
       <c r="R79" s="1682">
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="S79" s="1683">
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -16343,15 +16343,15 @@
         <v>170</v>
       </c>
       <c r="L80" s="1426">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M80" s="1427">
         <f si="9" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N80" s="1428">
         <f si="10" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O80" s="1429">
         <v>2</v>
@@ -16363,10 +16363,10 @@
         <v>203</v>
       </c>
       <c r="R80" s="1684">
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="S80" s="1685">
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
     </row>
     <row customFormat="1" r="81" s="1433" spans="1:19" x14ac:dyDescent="0.25">
@@ -16459,15 +16459,15 @@
         <v>173</v>
       </c>
       <c r="L82" s="1461">
-        <v>4670</v>
+        <v>4030</v>
       </c>
       <c r="M82" s="1462">
         <f si="9" t="shared"/>
-        <v>33.285714285714285</v>
+        <v>42.428571428571423</v>
       </c>
       <c r="N82" s="1463">
         <f si="10" t="shared"/>
-        <v>-2.4122807017543857</v>
+        <v>11.62280701754386</v>
       </c>
       <c r="O82" s="1464">
         <v>4</v>
@@ -16511,15 +16511,15 @@
         <v>152</v>
       </c>
       <c r="L83" s="1476">
-        <v>3670</v>
+        <v>3030</v>
       </c>
       <c r="M83" s="1477">
         <f si="9" t="shared"/>
-        <v>47.571428571428569</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="N83" s="1478">
         <f si="10" t="shared"/>
-        <v>19.517543859649123</v>
+        <v>33.55263157894737</v>
       </c>
       <c r="O83" s="1479">
         <v>3</v>
@@ -16531,10 +16531,10 @@
         <v>216</v>
       </c>
       <c r="R83" s="1688">
-        <v>40.428571428571431</v>
+        <v>49.571428571428569</v>
       </c>
       <c r="S83" s="1689">
-        <v>8.5526315789473681</v>
+        <v>22.587719298245617</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
@@ -16569,15 +16569,15 @@
         <v>173</v>
       </c>
       <c r="L84" s="1495">
-        <v>4670</v>
+        <v>4030</v>
       </c>
       <c r="M84" s="1496">
         <f si="9" t="shared"/>
-        <v>33.285714285714285</v>
+        <v>42.428571428571423</v>
       </c>
       <c r="N84" s="1497">
         <f si="10" t="shared"/>
-        <v>-2.4122807017543857</v>
+        <v>11.62280701754386</v>
       </c>
       <c r="O84" s="1498">
         <v>4</v>
@@ -16621,15 +16621,15 @@
         <v>170</v>
       </c>
       <c r="L85" s="1510">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M85" s="1511">
         <f si="9" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N85" s="1512">
         <f si="10" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O85" s="1513">
         <v>2</v>
@@ -16673,15 +16673,15 @@
         <v>171</v>
       </c>
       <c r="L86" s="1525">
-        <v>1670</v>
+        <v>1030</v>
       </c>
       <c r="M86" s="1526">
         <f si="9" t="shared"/>
-        <v>76.142857142857139</v>
+        <v>85.285714285714292</v>
       </c>
       <c r="N86" s="1527">
         <f si="10" t="shared"/>
-        <v>63.377192982456144</v>
+        <v>77.412280701754383</v>
       </c>
       <c r="O86" s="1528">
         <v>1</v>
@@ -16693,10 +16693,10 @@
         <v>206</v>
       </c>
       <c r="R86" s="1690">
-        <v>57.095238095238102</v>
+        <v>66.238095238095241</v>
       </c>
       <c r="S86" s="1691">
-        <v>34.137426900584792</v>
+        <v>48.172514619883039</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
@@ -16731,15 +16731,15 @@
         <v>152</v>
       </c>
       <c r="L87" s="1546">
-        <v>3670</v>
+        <v>3030</v>
       </c>
       <c r="M87" s="1547">
         <f si="9" t="shared"/>
-        <v>47.571428571428569</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="N87" s="1548">
         <f si="10" t="shared"/>
-        <v>19.517543859649123</v>
+        <v>33.55263157894737</v>
       </c>
       <c r="O87" s="1549">
         <v>3</v>
@@ -16783,15 +16783,15 @@
         <v>170</v>
       </c>
       <c r="L88" s="1561">
-        <v>2670</v>
+        <v>2030</v>
       </c>
       <c r="M88" s="1562">
         <f si="9" t="shared"/>
-        <v>61.857142857142854</v>
+        <v>71</v>
       </c>
       <c r="N88" s="1563">
         <f si="10" t="shared"/>
-        <v>41.44736842105263</v>
+        <v>55.482456140350877</v>
       </c>
       <c r="O88" s="1564">
         <v>2</v>
@@ -16803,10 +16803,10 @@
         <v>182</v>
       </c>
       <c r="R88" s="1692">
-        <v>54.714285714285715</v>
+        <v>63.857142857142854</v>
       </c>
       <c r="S88" s="1693">
-        <v>30.482456140350877</v>
+        <v>44.517543859649123</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
@@ -16821,7 +16821,7 @@
       </c>
       <c r="L89">
         <f>IF(+K89=T3,W3,IF(K89=T4,W4,IF(K89=T5,W5,IF(K89=T6,W6,IF(K89=T7,W7)))))</f>
-        <v>2670</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="L90">
         <f>IF(+K90=T3,W3,IF(K90=T4,W4,IF(K90=T5,W5,IF(K90=T6,W6,IF(K90=T7,W7)))))</f>
-        <v>3670</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
@@ -16851,7 +16851,7 @@
       </c>
       <c r="L91">
         <f>IF(+K91=T3,W3,IF(K91=T4,W4,IF(K91=T5,W5,IF(K91=T6,W6,IF(K91=T7,W7)))))</f>
-        <v>1670</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
@@ -16866,7 +16866,7 @@
       </c>
       <c r="L92">
         <f>IF(+K92=T3,W3,IF(K92=T4,W4,IF(K92=T5,W5,IF(K92=T6,W6,IF(K92=T7,W7)))))</f>
-        <v>2670</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
@@ -16890,7 +16890,7 @@
       </c>
       <c r="L93" s="1582">
         <f>SUM(L2:L92)</f>
-        <v>253450</v>
+        <v>199050</v>
       </c>
       <c r="O93" t="s">
         <v>221</v>
@@ -16940,7 +16940,7 @@
       </c>
       <c r="F102" s="1592">
         <f>SUM(L2:L92)</f>
-        <v>253450</v>
+        <v>199050</v>
       </c>
     </row>
     <row r="103" spans="5:6" x14ac:dyDescent="0.25">
@@ -16949,7 +16949,7 @@
       </c>
       <c r="F103" s="1594">
         <f>(609000-SUM(L2:L92))/(609000)*100</f>
-        <v>58.382594417077172</v>
+        <v>67.315270935960598</v>
       </c>
     </row>
     <row r="104" spans="5:6" x14ac:dyDescent="0.25">
@@ -16958,7 +16958,7 @@
       </c>
       <c r="F104" s="1596">
         <f>(SUM(G2:G92)-SUM(L2:L92))/(SUM(G2:G92))*100</f>
-        <v>36.113631780600933</v>
+        <v>49.826073805202661</v>
       </c>
     </row>
     <row r="105" spans="5:6" x14ac:dyDescent="0.25">
@@ -16967,7 +16967,7 @@
       </c>
       <c r="F105" s="1598">
         <f>(609000+SUM(H2:H92)-SUM(L2:L92))/(609000+SUM(H2:H92))*100</f>
-        <v>58.382594417077172</v>
+        <v>67.315270935960598</v>
       </c>
     </row>
   </sheetData>

--- a/output/revenue_template_v1final312.xlsx
+++ b/output/revenue_template_v1final312.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1" hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="2" windowHeight="9000" windowWidth="24000" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="5" firstSheet="2" windowHeight="9000" windowWidth="24000" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Revenue" r:id="rId2" sheetId="10"/>
@@ -12,9 +12,9 @@
     <sheet name="Sheet3" r:id="rId4" sheetId="12"/>
     <sheet name="Sheet4" r:id="rId5" sheetId="14"/>
     <sheet name="CreatedSheet" r:id="rId6" sheetId="15"/>
-    <sheet name="ChartSheet" r:id="rId7" sheetId="16"/>
     <sheet name="Chart" r:id="rId8" sheetId="17"/>
     <sheet name="RMs" r:id="rId12" sheetId="18"/>
+    <sheet name="ChartSheet" r:id="rId13" sheetId="19"/>
   </sheets>
   <calcPr fullCalcOnLoad="1" refMode="R1C1"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="236">
   <si>
     <t>Row Labels</t>
   </si>
@@ -746,7 +746,7 @@
     <numFmt numFmtId="165" formatCode="#"/>
     <numFmt numFmtId="166" formatCode="#.##"/>
   </numFmts>
-  <fonts count="95">
+  <fonts count="129">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1238,8 +1238,178 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill/>
     </fill>
@@ -1284,8 +1454,16 @@
         <fgColor indexed="49"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1615,6 +1793,60 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -1641,7 +1873,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
   </cellStyleXfs>
-  <cellXfs count="2793">
+  <cellXfs count="2933">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
@@ -8133,1334 +8365,1754 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="true" applyBorder="true">
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="8" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="true" applyBorder="true">
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="8" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="true" applyBorder="true">
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="8" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="true" applyBorder="true">
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="8" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="true" applyBorder="true">
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="8" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="true" applyBorder="true">
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="8" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="true" applyBorder="true">
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="8" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="true" applyBorder="true">
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="8" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="14" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="19" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="20" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="22" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="23" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="24" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="25" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="27" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="28" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="29" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="30" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="31" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="32" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="33" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="34" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="35" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="36" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="37" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="38" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="39" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="40" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="41" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="42" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="43" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="44" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="45" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="46" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="47" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="49" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="51" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="52" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="53" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="54" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="55" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="56" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="57" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="58" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="59" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="60" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="61" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="62" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="63" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="64" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="65" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="66" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="67" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="68" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="69" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="71" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="73" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="74" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="76" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="77" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="78" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="79" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="80" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="81" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="82" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="83" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="84" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="85" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="86" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="87" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="88" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="89" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="90" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="91" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="92" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="93" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="94" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -13337,44 +13989,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.53125" customWidth="true"/>
-    <col min="2" max="2" width="27.34375" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60.0" customHeight="true">
-      <c r="A1" t="s" s="2350">
+    <row customHeight="true" ht="60.0" r="1">
+      <c r="A1" s="2350" t="s">
         <v>224</v>
       </c>
-      <c r="B1" t="s" s="2351">
+      <c r="B1" s="2351" t="s">
         <v>155</v>
       </c>
-      <c r="C1" t="s" s="2352">
+      <c r="C1" s="2352" t="s">
         <v>161</v>
       </c>
-      <c r="D1" t="s" s="2353">
+      <c r="D1" s="2353" t="s">
         <v>222</v>
       </c>
-      <c r="E1" t="s" s="2354">
+      <c r="E1" s="2354" t="s">
         <v>225</v>
       </c>
-      <c r="F1" t="s" s="2355">
+      <c r="F1" s="2355" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s" s="2356">
+      <c r="G1" s="2356" t="s">
         <v>226</v>
       </c>
-      <c r="H1" t="s" s="2357">
+      <c r="H1" s="2357" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="2358">
+      <c r="A2" s="2358" t="s">
         <v>227</v>
       </c>
-      <c r="B2" t="s" s="2359">
+      <c r="B2" s="2359" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="n" s="2360">
+      <c r="C2" s="2360" t="n">
         <v>3.0</v>
       </c>
       <c r="D2" s="2388" t="n">
@@ -13385,13 +14037,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2361">
+      <c r="A3" s="2361" t="s">
         <v>227</v>
       </c>
-      <c r="B3" t="s" s="2362">
+      <c r="B3" s="2362" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="n" s="2363">
+      <c r="C3" s="2363" t="n">
         <v>2.0</v>
       </c>
       <c r="D3" s="2390" t="n">
@@ -13402,13 +14054,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="2364">
+      <c r="A4" s="2364" t="s">
         <v>227</v>
       </c>
-      <c r="B4" t="s" s="2365">
+      <c r="B4" s="2365" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="n" s="2366">
+      <c r="C4" s="2366" t="n">
         <v>2.0</v>
       </c>
       <c r="D4" s="2392" t="n">
@@ -13419,13 +14071,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="2367">
+      <c r="A5" s="2367" t="s">
         <v>227</v>
       </c>
-      <c r="B5" t="s" s="2368">
+      <c r="B5" s="2368" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="n" s="2369">
+      <c r="C5" s="2369" t="n">
         <v>2.0</v>
       </c>
       <c r="D5" s="2394" t="n">
@@ -13436,13 +14088,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="2370">
+      <c r="A6" s="2370" t="s">
         <v>227</v>
       </c>
-      <c r="B6" t="s" s="2371">
+      <c r="B6" s="2371" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="n" s="2372">
+      <c r="C6" s="2372" t="n">
         <v>2.0</v>
       </c>
       <c r="D6" s="2396" t="n">
@@ -13453,13 +14105,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="2373">
+      <c r="A7" s="2373" t="s">
         <v>227</v>
       </c>
-      <c r="B7" t="s" s="2374">
+      <c r="B7" s="2374" t="s">
         <v>67</v>
       </c>
-      <c r="C7" t="n" s="2375">
+      <c r="C7" s="2375" t="n">
         <v>2.0</v>
       </c>
       <c r="D7" s="2398" t="n">
@@ -13470,13 +14122,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="2376">
+      <c r="A8" s="2376" t="s">
         <v>227</v>
       </c>
-      <c r="B8" t="s" s="2377">
+      <c r="B8" s="2377" t="s">
         <v>107</v>
       </c>
-      <c r="C8" t="n" s="2378">
+      <c r="C8" s="2378" t="n">
         <v>2.0</v>
       </c>
       <c r="D8" s="2400" t="n">
@@ -13487,13 +14139,13 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2379">
+      <c r="A9" s="2379" t="s">
         <v>227</v>
       </c>
-      <c r="B9" t="s" s="2380">
+      <c r="B9" s="2380" t="s">
         <v>110</v>
       </c>
-      <c r="C9" t="n" s="2381">
+      <c r="C9" s="2381" t="n">
         <v>3.0</v>
       </c>
       <c r="D9" s="2402" t="n">
@@ -13504,13 +14156,13 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2382">
+      <c r="A10" s="2382" t="s">
         <v>227</v>
       </c>
-      <c r="B10" t="s" s="2383">
+      <c r="B10" s="2383" t="s">
         <v>114</v>
       </c>
-      <c r="C10" t="n" s="2384">
+      <c r="C10" s="2384" t="n">
         <v>1.0</v>
       </c>
       <c r="D10" s="2404" t="n">
@@ -13521,13 +14173,13 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2385">
+      <c r="A11" s="2385" t="s">
         <v>227</v>
       </c>
-      <c r="B11" t="s" s="2386">
+      <c r="B11" s="2386" t="s">
         <v>142</v>
       </c>
-      <c r="C11" t="n" s="2387">
+      <c r="C11" s="2387" t="n">
         <v>2.0</v>
       </c>
       <c r="D11" s="2406" t="n">
@@ -13538,13 +14190,13 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2408">
+      <c r="A12" s="2408" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s" s="2409">
+      <c r="B12" s="2409" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="n" s="2410">
+      <c r="C12" s="2410" t="n">
         <v>3.0</v>
       </c>
       <c r="D12" s="2462" t="n">
@@ -13555,13 +14207,13 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2411">
+      <c r="A13" s="2411" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s" s="2412">
+      <c r="B13" s="2412" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="n" s="2413">
+      <c r="C13" s="2413" t="n">
         <v>2.0</v>
       </c>
       <c r="D13" s="2464" t="n">
@@ -13572,13 +14224,13 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2414">
+      <c r="A14" s="2414" t="s">
         <v>44</v>
       </c>
-      <c r="B14" t="s" s="2415">
+      <c r="B14" s="2415" t="s">
         <v>34</v>
       </c>
-      <c r="C14" t="n" s="2416">
+      <c r="C14" s="2416" t="n">
         <v>3.0</v>
       </c>
       <c r="D14" s="2466" t="n">
@@ -13589,13 +14241,13 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2417">
+      <c r="A15" s="2417" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="s" s="2418">
+      <c r="B15" s="2418" t="s">
         <v>46</v>
       </c>
-      <c r="C15" t="n" s="2419">
+      <c r="C15" s="2419" t="n">
         <v>2.0</v>
       </c>
       <c r="D15" s="2468" t="n">
@@ -13606,13 +14258,13 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2420">
+      <c r="A16" s="2420" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s" s="2421">
+      <c r="B16" s="2421" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="n" s="2422">
+      <c r="C16" s="2422" t="n">
         <v>3.0</v>
       </c>
       <c r="D16" s="2470" t="n">
@@ -13623,13 +14275,13 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2423">
+      <c r="A17" s="2423" t="s">
         <v>44</v>
       </c>
-      <c r="B17" t="s" s="2424">
+      <c r="B17" s="2424" t="s">
         <v>64</v>
       </c>
-      <c r="C17" t="n" s="2425">
+      <c r="C17" s="2425" t="n">
         <v>3.0</v>
       </c>
       <c r="D17" s="2472" t="n">
@@ -13640,13 +14292,13 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2426">
+      <c r="A18" s="2426" t="s">
         <v>44</v>
       </c>
-      <c r="B18" t="s" s="2427">
+      <c r="B18" s="2427" t="s">
         <v>72</v>
       </c>
-      <c r="C18" t="n" s="2428">
+      <c r="C18" s="2428" t="n">
         <v>2.0</v>
       </c>
       <c r="D18" s="2474" t="n">
@@ -13657,13 +14309,13 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2429">
+      <c r="A19" s="2429" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s" s="2430">
+      <c r="B19" s="2430" t="s">
         <v>76</v>
       </c>
-      <c r="C19" t="n" s="2431">
+      <c r="C19" s="2431" t="n">
         <v>2.0</v>
       </c>
       <c r="D19" s="2476" t="n">
@@ -13674,13 +14326,13 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2432">
+      <c r="A20" s="2432" t="s">
         <v>44</v>
       </c>
-      <c r="B20" t="s" s="2433">
+      <c r="B20" s="2433" t="s">
         <v>91</v>
       </c>
-      <c r="C20" t="n" s="2434">
+      <c r="C20" s="2434" t="n">
         <v>2.0</v>
       </c>
       <c r="D20" s="2478" t="n">
@@ -13691,13 +14343,13 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2435">
+      <c r="A21" s="2435" t="s">
         <v>44</v>
       </c>
-      <c r="B21" t="s" s="2436">
+      <c r="B21" s="2436" t="s">
         <v>100</v>
       </c>
-      <c r="C21" t="n" s="2437">
+      <c r="C21" s="2437" t="n">
         <v>2.0</v>
       </c>
       <c r="D21" s="2480" t="n">
@@ -13708,13 +14360,13 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2438">
+      <c r="A22" s="2438" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="s" s="2439">
+      <c r="B22" s="2439" t="s">
         <v>103</v>
       </c>
-      <c r="C22" t="n" s="2440">
+      <c r="C22" s="2440" t="n">
         <v>2.0</v>
       </c>
       <c r="D22" s="2482" t="n">
@@ -13725,13 +14377,13 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2441">
+      <c r="A23" s="2441" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s" s="2442">
+      <c r="B23" s="2442" t="s">
         <v>106</v>
       </c>
-      <c r="C23" t="n" s="2443">
+      <c r="C23" s="2443" t="n">
         <v>2.0</v>
       </c>
       <c r="D23" s="2484" t="n">
@@ -13742,13 +14394,13 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2444">
+      <c r="A24" s="2444" t="s">
         <v>44</v>
       </c>
-      <c r="B24" t="s" s="2445">
+      <c r="B24" s="2445" t="s">
         <v>116</v>
       </c>
-      <c r="C24" t="n" s="2446">
+      <c r="C24" s="2446" t="n">
         <v>2.0</v>
       </c>
       <c r="D24" s="2486" t="n">
@@ -13759,13 +14411,13 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2447">
+      <c r="A25" s="2447" t="s">
         <v>44</v>
       </c>
-      <c r="B25" t="s" s="2448">
+      <c r="B25" s="2448" t="s">
         <v>117</v>
       </c>
-      <c r="C25" t="n" s="2449">
+      <c r="C25" s="2449" t="n">
         <v>2.0</v>
       </c>
       <c r="D25" s="2488" t="n">
@@ -13776,13 +14428,13 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2450">
+      <c r="A26" s="2450" t="s">
         <v>44</v>
       </c>
-      <c r="B26" t="s" s="2451">
+      <c r="B26" s="2451" t="s">
         <v>122</v>
       </c>
-      <c r="C26" t="n" s="2452">
+      <c r="C26" s="2452" t="n">
         <v>2.0</v>
       </c>
       <c r="D26" s="2490" t="n">
@@ -13793,13 +14445,13 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2453">
+      <c r="A27" s="2453" t="s">
         <v>44</v>
       </c>
-      <c r="B27" t="s" s="2454">
+      <c r="B27" s="2454" t="s">
         <v>129</v>
       </c>
-      <c r="C27" t="n" s="2455">
+      <c r="C27" s="2455" t="n">
         <v>2.0</v>
       </c>
       <c r="D27" s="2492" t="n">
@@ -13810,13 +14462,13 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2456">
+      <c r="A28" s="2456" t="s">
         <v>44</v>
       </c>
-      <c r="B28" t="s" s="2457">
+      <c r="B28" s="2457" t="s">
         <v>138</v>
       </c>
-      <c r="C28" t="n" s="2458">
+      <c r="C28" s="2458" t="n">
         <v>3.0</v>
       </c>
       <c r="D28" s="2494" t="n">
@@ -13827,13 +14479,13 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2459">
+      <c r="A29" s="2459" t="s">
         <v>44</v>
       </c>
-      <c r="B29" t="s" s="2460">
+      <c r="B29" s="2460" t="s">
         <v>146</v>
       </c>
-      <c r="C29" t="n" s="2461">
+      <c r="C29" s="2461" t="n">
         <v>3.0</v>
       </c>
       <c r="D29" s="2496" t="n">
@@ -13844,13 +14496,13 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2498">
+      <c r="A30" s="2498" t="s">
         <v>229</v>
       </c>
-      <c r="B30" t="s" s="2499">
+      <c r="B30" s="2499" t="s">
         <v>12</v>
       </c>
-      <c r="C30" t="n" s="2500">
+      <c r="C30" s="2500" t="n">
         <v>5.0</v>
       </c>
       <c r="D30" s="2540" t="n">
@@ -13861,13 +14513,13 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2501">
+      <c r="A31" s="2501" t="s">
         <v>229</v>
       </c>
-      <c r="B31" t="s" s="2502">
+      <c r="B31" s="2502" t="s">
         <v>17</v>
       </c>
-      <c r="C31" t="n" s="2503">
+      <c r="C31" s="2503" t="n">
         <v>4.0</v>
       </c>
       <c r="D31" s="2542" t="n">
@@ -13878,13 +14530,13 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2504">
+      <c r="A32" s="2504" t="s">
         <v>229</v>
       </c>
-      <c r="B32" t="s" s="2505">
+      <c r="B32" s="2505" t="s">
         <v>23</v>
       </c>
-      <c r="C32" t="n" s="2506">
+      <c r="C32" s="2506" t="n">
         <v>4.0</v>
       </c>
       <c r="D32" s="2544" t="n">
@@ -13895,13 +14547,13 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2507">
+      <c r="A33" s="2507" t="s">
         <v>229</v>
       </c>
-      <c r="B33" t="s" s="2508">
+      <c r="B33" s="2508" t="s">
         <v>25</v>
       </c>
-      <c r="C33" t="n" s="2509">
+      <c r="C33" s="2509" t="n">
         <v>4.0</v>
       </c>
       <c r="D33" s="2546" t="n">
@@ -13912,13 +14564,13 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2510">
+      <c r="A34" s="2510" t="s">
         <v>229</v>
       </c>
-      <c r="B34" t="s" s="2511">
+      <c r="B34" s="2511" t="s">
         <v>36</v>
       </c>
-      <c r="C34" t="n" s="2512">
+      <c r="C34" s="2512" t="n">
         <v>4.0</v>
       </c>
       <c r="D34" s="2548" t="n">
@@ -13929,13 +14581,13 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2513">
+      <c r="A35" s="2513" t="s">
         <v>229</v>
       </c>
-      <c r="B35" t="s" s="2514">
+      <c r="B35" s="2514" t="s">
         <v>44</v>
       </c>
-      <c r="C35" t="n" s="2515">
+      <c r="C35" s="2515" t="n">
         <v>4.0</v>
       </c>
       <c r="D35" s="2550" t="n">
@@ -13946,13 +14598,13 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2516">
+      <c r="A36" s="2516" t="s">
         <v>229</v>
       </c>
-      <c r="B36" t="s" s="2517">
+      <c r="B36" s="2517" t="s">
         <v>45</v>
       </c>
-      <c r="C36" t="n" s="2518">
+      <c r="C36" s="2518" t="n">
         <v>3.0</v>
       </c>
       <c r="D36" s="2552" t="n">
@@ -13963,13 +14615,13 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2519">
+      <c r="A37" s="2519" t="s">
         <v>229</v>
       </c>
-      <c r="B37" t="s" s="2520">
+      <c r="B37" s="2520" t="s">
         <v>54</v>
       </c>
-      <c r="C37" t="n" s="2521">
+      <c r="C37" s="2521" t="n">
         <v>3.0</v>
       </c>
       <c r="D37" s="2554" t="n">
@@ -13980,13 +14632,13 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2522">
+      <c r="A38" s="2522" t="s">
         <v>229</v>
       </c>
-      <c r="B38" t="s" s="2523">
+      <c r="B38" s="2523" t="s">
         <v>68</v>
       </c>
-      <c r="C38" t="n" s="2524">
+      <c r="C38" s="2524" t="n">
         <v>3.0</v>
       </c>
       <c r="D38" s="2556" t="n">
@@ -13997,13 +14649,13 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2525">
+      <c r="A39" s="2525" t="s">
         <v>229</v>
       </c>
-      <c r="B39" t="s" s="2526">
+      <c r="B39" s="2526" t="s">
         <v>81</v>
       </c>
-      <c r="C39" t="n" s="2527">
+      <c r="C39" s="2527" t="n">
         <v>3.0</v>
       </c>
       <c r="D39" s="2558" t="n">
@@ -14014,13 +14666,13 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2528">
+      <c r="A40" s="2528" t="s">
         <v>229</v>
       </c>
-      <c r="B40" t="s" s="2529">
+      <c r="B40" s="2529" t="s">
         <v>89</v>
       </c>
-      <c r="C40" t="n" s="2530">
+      <c r="C40" s="2530" t="n">
         <v>3.0</v>
       </c>
       <c r="D40" s="2560" t="n">
@@ -14031,13 +14683,13 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2531">
+      <c r="A41" s="2531" t="s">
         <v>229</v>
       </c>
-      <c r="B41" t="s" s="2532">
+      <c r="B41" s="2532" t="s">
         <v>94</v>
       </c>
-      <c r="C41" t="n" s="2533">
+      <c r="C41" s="2533" t="n">
         <v>4.0</v>
       </c>
       <c r="D41" s="2562" t="n">
@@ -14048,13 +14700,13 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2534">
+      <c r="A42" s="2534" t="s">
         <v>229</v>
       </c>
-      <c r="B42" t="s" s="2535">
+      <c r="B42" s="2535" t="s">
         <v>137</v>
       </c>
-      <c r="C42" t="n" s="2536">
+      <c r="C42" s="2536" t="n">
         <v>4.0</v>
       </c>
       <c r="D42" s="2564" t="n">
@@ -14065,13 +14717,13 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2537">
+      <c r="A43" s="2537" t="s">
         <v>229</v>
       </c>
-      <c r="B43" t="s" s="2538">
+      <c r="B43" s="2538" t="s">
         <v>141</v>
       </c>
-      <c r="C43" t="n" s="2539">
+      <c r="C43" s="2539" t="n">
         <v>4.0</v>
       </c>
       <c r="D43" s="2566" t="n">
@@ -14082,13 +14734,13 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2568">
+      <c r="A44" s="2568" t="s">
         <v>36</v>
       </c>
-      <c r="B44" t="s" s="2569">
+      <c r="B44" s="2569" t="s">
         <v>14</v>
       </c>
-      <c r="C44" t="n" s="2570">
+      <c r="C44" s="2570" t="n">
         <v>1.0</v>
       </c>
       <c r="D44" s="2604" t="n">
@@ -14099,13 +14751,13 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2571">
+      <c r="A45" s="2571" t="s">
         <v>36</v>
       </c>
-      <c r="B45" t="s" s="2572">
+      <c r="B45" s="2572" t="s">
         <v>27</v>
       </c>
-      <c r="C45" t="n" s="2573">
+      <c r="C45" s="2573" t="n">
         <v>2.0</v>
       </c>
       <c r="D45" s="2606" t="n">
@@ -14116,13 +14768,13 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2574">
+      <c r="A46" s="2574" t="s">
         <v>36</v>
       </c>
-      <c r="B46" t="s" s="2575">
+      <c r="B46" s="2575" t="s">
         <v>33</v>
       </c>
-      <c r="C46" t="n" s="2576">
+      <c r="C46" s="2576" t="n">
         <v>2.0</v>
       </c>
       <c r="D46" s="2608" t="n">
@@ -14133,13 +14785,13 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2577">
+      <c r="A47" s="2577" t="s">
         <v>36</v>
       </c>
-      <c r="B47" t="s" s="2578">
+      <c r="B47" s="2578" t="s">
         <v>38</v>
       </c>
-      <c r="C47" t="n" s="2579">
+      <c r="C47" s="2579" t="n">
         <v>2.0</v>
       </c>
       <c r="D47" s="2610" t="n">
@@ -14150,13 +14802,13 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2580">
+      <c r="A48" s="2580" t="s">
         <v>36</v>
       </c>
-      <c r="B48" t="s" s="2581">
+      <c r="B48" s="2581" t="s">
         <v>39</v>
       </c>
-      <c r="C48" t="n" s="2582">
+      <c r="C48" s="2582" t="n">
         <v>2.0</v>
       </c>
       <c r="D48" s="2612" t="n">
@@ -14167,13 +14819,13 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2583">
+      <c r="A49" s="2583" t="s">
         <v>36</v>
       </c>
-      <c r="B49" t="s" s="2584">
+      <c r="B49" s="2584" t="s">
         <v>40</v>
       </c>
-      <c r="C49" t="n" s="2585">
+      <c r="C49" s="2585" t="n">
         <v>1.0</v>
       </c>
       <c r="D49" s="2614" t="n">
@@ -14184,13 +14836,13 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2586">
+      <c r="A50" s="2586" t="s">
         <v>36</v>
       </c>
-      <c r="B50" t="s" s="2587">
+      <c r="B50" s="2587" t="s">
         <v>49</v>
       </c>
-      <c r="C50" t="n" s="2588">
+      <c r="C50" s="2588" t="n">
         <v>1.0</v>
       </c>
       <c r="D50" s="2616" t="n">
@@ -14201,13 +14853,13 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2589">
+      <c r="A51" s="2589" t="s">
         <v>36</v>
       </c>
-      <c r="B51" t="s" s="2590">
+      <c r="B51" s="2590" t="s">
         <v>83</v>
       </c>
-      <c r="C51" t="n" s="2591">
+      <c r="C51" s="2591" t="n">
         <v>1.0</v>
       </c>
       <c r="D51" s="2618" t="n">
@@ -14218,13 +14870,13 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2592">
+      <c r="A52" s="2592" t="s">
         <v>36</v>
       </c>
-      <c r="B52" t="s" s="2593">
+      <c r="B52" s="2593" t="s">
         <v>86</v>
       </c>
-      <c r="C52" t="n" s="2594">
+      <c r="C52" s="2594" t="n">
         <v>2.0</v>
       </c>
       <c r="D52" s="2620" t="n">
@@ -14235,13 +14887,13 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2595">
+      <c r="A53" s="2595" t="s">
         <v>36</v>
       </c>
-      <c r="B53" t="s" s="2596">
+      <c r="B53" s="2596" t="s">
         <v>90</v>
       </c>
-      <c r="C53" t="n" s="2597">
+      <c r="C53" s="2597" t="n">
         <v>2.0</v>
       </c>
       <c r="D53" s="2622" t="n">
@@ -14252,13 +14904,13 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2598">
+      <c r="A54" s="2598" t="s">
         <v>36</v>
       </c>
-      <c r="B54" t="s" s="2599">
+      <c r="B54" s="2599" t="s">
         <v>99</v>
       </c>
-      <c r="C54" t="n" s="2600">
+      <c r="C54" s="2600" t="n">
         <v>2.0</v>
       </c>
       <c r="D54" s="2624" t="n">
@@ -14269,13 +14921,13 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2601">
+      <c r="A55" s="2601" t="s">
         <v>36</v>
       </c>
-      <c r="B55" t="s" s="2602">
+      <c r="B55" s="2602" t="s">
         <v>127</v>
       </c>
-      <c r="C55" t="n" s="2603">
+      <c r="C55" s="2603" t="n">
         <v>2.0</v>
       </c>
       <c r="D55" s="2626" t="n">
@@ -14286,13 +14938,13 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2628">
+      <c r="A56" s="2628" t="s">
         <v>25</v>
       </c>
-      <c r="B56" t="s" s="2629">
+      <c r="B56" s="2629" t="s">
         <v>18</v>
       </c>
-      <c r="C56" t="n" s="2630">
+      <c r="C56" s="2630" t="n">
         <v>3.0</v>
       </c>
       <c r="D56" s="2643" t="n">
@@ -14303,13 +14955,13 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2631">
+      <c r="A57" s="2631" t="s">
         <v>25</v>
       </c>
-      <c r="B57" t="s" s="2632">
+      <c r="B57" s="2632" t="s">
         <v>24</v>
       </c>
-      <c r="C57" t="n" s="2633">
+      <c r="C57" s="2633" t="n">
         <v>2.0</v>
       </c>
       <c r="D57" s="2645" t="n">
@@ -14320,13 +14972,13 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2634">
+      <c r="A58" s="2634" t="s">
         <v>25</v>
       </c>
-      <c r="B58" t="s" s="2635">
+      <c r="B58" s="2635" t="s">
         <v>26</v>
       </c>
-      <c r="C58" t="n" s="2636">
+      <c r="C58" s="2636" t="n">
         <v>1.0</v>
       </c>
       <c r="D58" s="2647" t="n">
@@ -14337,13 +14989,13 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2637">
+      <c r="A59" s="2637" t="s">
         <v>25</v>
       </c>
-      <c r="B59" t="s" s="2638">
+      <c r="B59" s="2638" t="s">
         <v>28</v>
       </c>
-      <c r="C59" t="n" s="2639">
+      <c r="C59" s="2639" t="n">
         <v>3.0</v>
       </c>
       <c r="D59" s="2649" t="n">
@@ -14354,13 +15006,13 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2640">
+      <c r="A60" s="2640" t="s">
         <v>25</v>
       </c>
-      <c r="B60" t="s" s="2641">
+      <c r="B60" s="2641" t="s">
         <v>29</v>
       </c>
-      <c r="C60" t="n" s="2642">
+      <c r="C60" s="2642" t="n">
         <v>2.0</v>
       </c>
       <c r="D60" s="2651" t="n">
@@ -14371,13 +15023,13 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2653">
+      <c r="A61" s="2653" t="s">
         <v>12</v>
       </c>
-      <c r="B61" t="s" s="2654">
+      <c r="B61" s="2654" t="s">
         <v>19</v>
       </c>
-      <c r="C61" t="n" s="2655">
+      <c r="C61" s="2655" t="n">
         <v>3.0</v>
       </c>
       <c r="D61" s="2683" t="n">
@@ -14388,13 +15040,13 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2656">
+      <c r="A62" s="2656" t="s">
         <v>12</v>
       </c>
-      <c r="B62" t="s" s="2657">
+      <c r="B62" s="2657" t="s">
         <v>35</v>
       </c>
-      <c r="C62" t="n" s="2658">
+      <c r="C62" s="2658" t="n">
         <v>2.0</v>
       </c>
       <c r="D62" s="2685" t="n">
@@ -14405,13 +15057,13 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2659">
+      <c r="A63" s="2659" t="s">
         <v>12</v>
       </c>
-      <c r="B63" t="s" s="2660">
+      <c r="B63" s="2660" t="s">
         <v>53</v>
       </c>
-      <c r="C63" t="n" s="2661">
+      <c r="C63" s="2661" t="n">
         <v>3.0</v>
       </c>
       <c r="D63" s="2687" t="n">
@@ -14422,13 +15074,13 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2662">
+      <c r="A64" s="2662" t="s">
         <v>12</v>
       </c>
-      <c r="B64" t="s" s="2663">
+      <c r="B64" s="2663" t="s">
         <v>71</v>
       </c>
-      <c r="C64" t="n" s="2664">
+      <c r="C64" s="2664" t="n">
         <v>3.0</v>
       </c>
       <c r="D64" s="2689" t="n">
@@ -14439,13 +15091,13 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2665">
+      <c r="A65" s="2665" t="s">
         <v>12</v>
       </c>
-      <c r="B65" t="s" s="2666">
+      <c r="B65" s="2666" t="s">
         <v>85</v>
       </c>
-      <c r="C65" t="n" s="2667">
+      <c r="C65" s="2667" t="n">
         <v>3.0</v>
       </c>
       <c r="D65" s="2691" t="n">
@@ -14456,13 +15108,13 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2668">
+      <c r="A66" s="2668" t="s">
         <v>12</v>
       </c>
-      <c r="B66" t="s" s="2669">
+      <c r="B66" s="2669" t="s">
         <v>92</v>
       </c>
-      <c r="C66" t="n" s="2670">
+      <c r="C66" s="2670" t="n">
         <v>2.0</v>
       </c>
       <c r="D66" s="2693" t="n">
@@ -14473,13 +15125,13 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2671">
+      <c r="A67" s="2671" t="s">
         <v>12</v>
       </c>
-      <c r="B67" t="s" s="2672">
+      <c r="B67" s="2672" t="s">
         <v>98</v>
       </c>
-      <c r="C67" t="n" s="2673">
+      <c r="C67" s="2673" t="n">
         <v>2.0</v>
       </c>
       <c r="D67" s="2695" t="n">
@@ -14490,13 +15142,13 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2674">
+      <c r="A68" s="2674" t="s">
         <v>12</v>
       </c>
-      <c r="B68" t="s" s="2675">
+      <c r="B68" s="2675" t="s">
         <v>119</v>
       </c>
-      <c r="C68" t="n" s="2676">
+      <c r="C68" s="2676" t="n">
         <v>3.0</v>
       </c>
       <c r="D68" s="2697" t="n">
@@ -14507,13 +15159,13 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2677">
+      <c r="A69" s="2677" t="s">
         <v>12</v>
       </c>
-      <c r="B69" t="s" s="2678">
+      <c r="B69" s="2678" t="s">
         <v>120</v>
       </c>
-      <c r="C69" t="n" s="2679">
+      <c r="C69" s="2679" t="n">
         <v>1.0</v>
       </c>
       <c r="D69" s="2699" t="n">
@@ -14524,13 +15176,13 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2680">
+      <c r="A70" s="2680" t="s">
         <v>12</v>
       </c>
-      <c r="B70" t="s" s="2681">
+      <c r="B70" s="2681" t="s">
         <v>147</v>
       </c>
-      <c r="C70" t="n" s="2682">
+      <c r="C70" s="2682" t="n">
         <v>2.0</v>
       </c>
       <c r="D70" s="2701" t="n">
@@ -14541,13 +15193,13 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2703">
+      <c r="A71" s="2703" t="s">
         <v>234</v>
       </c>
-      <c r="B71" t="s" s="2704">
+      <c r="B71" s="2704" t="s">
         <v>20</v>
       </c>
-      <c r="C71" t="n" s="2705">
+      <c r="C71" s="2705" t="n">
         <v>3.0</v>
       </c>
       <c r="D71" s="2721" t="n">
@@ -14558,13 +15210,13 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2706">
+      <c r="A72" s="2706" t="s">
         <v>234</v>
       </c>
-      <c r="B72" t="s" s="2707">
+      <c r="B72" s="2707" t="s">
         <v>21</v>
       </c>
-      <c r="C72" t="n" s="2708">
+      <c r="C72" s="2708" t="n">
         <v>3.0</v>
       </c>
       <c r="D72" s="2723" t="n">
@@ -14575,13 +15227,13 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2709">
+      <c r="A73" s="2709" t="s">
         <v>234</v>
       </c>
-      <c r="B73" t="s" s="2710">
+      <c r="B73" s="2710" t="s">
         <v>59</v>
       </c>
-      <c r="C73" t="n" s="2711">
+      <c r="C73" s="2711" t="n">
         <v>2.0</v>
       </c>
       <c r="D73" s="2725" t="n">
@@ -14592,13 +15244,13 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2712">
+      <c r="A74" s="2712" t="s">
         <v>234</v>
       </c>
-      <c r="B74" t="s" s="2713">
+      <c r="B74" s="2713" t="s">
         <v>113</v>
       </c>
-      <c r="C74" t="n" s="2714">
+      <c r="C74" s="2714" t="n">
         <v>3.0</v>
       </c>
       <c r="D74" s="2727" t="n">
@@ -14609,13 +15261,13 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2715">
+      <c r="A75" s="2715" t="s">
         <v>234</v>
       </c>
-      <c r="B75" t="s" s="2716">
+      <c r="B75" s="2716" t="s">
         <v>126</v>
       </c>
-      <c r="C75" t="n" s="2717">
+      <c r="C75" s="2717" t="n">
         <v>1.0</v>
       </c>
       <c r="D75" s="2729" t="n">
@@ -14626,13 +15278,13 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2718">
+      <c r="A76" s="2718" t="s">
         <v>234</v>
       </c>
-      <c r="B76" t="s" s="2719">
+      <c r="B76" s="2719" t="s">
         <v>134</v>
       </c>
-      <c r="C76" t="n" s="2720">
+      <c r="C76" s="2720" t="n">
         <v>2.0</v>
       </c>
       <c r="D76" s="2731" t="n">
@@ -14643,13 +15295,13 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2733">
+      <c r="A77" s="2733" t="s">
         <v>138</v>
       </c>
-      <c r="B77" t="s" s="2734">
+      <c r="B77" s="2734" t="s">
         <v>43</v>
       </c>
-      <c r="C77" t="n" s="2735">
+      <c r="C77" s="2735" t="n">
         <v>1.0</v>
       </c>
       <c r="D77" s="2739" t="n">
@@ -14660,13 +15312,13 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2736">
+      <c r="A78" s="2736" t="s">
         <v>138</v>
       </c>
-      <c r="B78" t="s" s="2737">
+      <c r="B78" s="2737" t="s">
         <v>123</v>
       </c>
-      <c r="C78" t="n" s="2738">
+      <c r="C78" s="2738" t="n">
         <v>1.0</v>
       </c>
       <c r="D78" s="2741" t="n">
@@ -14677,13 +15329,13 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2743">
+      <c r="A79" s="2743" t="s">
         <v>141</v>
       </c>
-      <c r="B79" t="s" s="2744">
+      <c r="B79" s="2744" t="s">
         <v>51</v>
       </c>
-      <c r="C79" t="n" s="2745">
+      <c r="C79" s="2745" t="n">
         <v>2.0</v>
       </c>
       <c r="D79" s="2758" t="n">
@@ -14694,13 +15346,13 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2746">
+      <c r="A80" s="2746" t="s">
         <v>141</v>
       </c>
-      <c r="B80" t="s" s="2747">
+      <c r="B80" s="2747" t="s">
         <v>60</v>
       </c>
-      <c r="C80" t="n" s="2748">
+      <c r="C80" s="2748" t="n">
         <v>2.0</v>
       </c>
       <c r="D80" s="2760" t="n">
@@ -14711,13 +15363,13 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2749">
+      <c r="A81" s="2749" t="s">
         <v>141</v>
       </c>
-      <c r="B81" t="s" s="2750">
+      <c r="B81" s="2750" t="s">
         <v>78</v>
       </c>
-      <c r="C81" t="n" s="2751">
+      <c r="C81" s="2751" t="n">
         <v>2.0</v>
       </c>
       <c r="D81" s="2762" t="n">
@@ -14728,13 +15380,13 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2752">
+      <c r="A82" s="2752" t="s">
         <v>141</v>
       </c>
-      <c r="B82" t="s" s="2753">
+      <c r="B82" s="2753" t="s">
         <v>82</v>
       </c>
-      <c r="C82" t="n" s="2754">
+      <c r="C82" s="2754" t="n">
         <v>2.0</v>
       </c>
       <c r="D82" s="2764" t="n">
@@ -14745,13 +15397,13 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2755">
+      <c r="A83" s="2755" t="s">
         <v>141</v>
       </c>
-      <c r="B83" t="s" s="2756">
+      <c r="B83" s="2756" t="s">
         <v>143</v>
       </c>
-      <c r="C83" t="n" s="2757">
+      <c r="C83" s="2757" t="n">
         <v>1.0</v>
       </c>
       <c r="D83" s="2766" t="n">
@@ -14762,13 +15414,13 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2768">
+      <c r="A84" s="2768" t="s">
         <v>17</v>
       </c>
-      <c r="B84" t="s" s="2769">
+      <c r="B84" s="2769" t="s">
         <v>73</v>
       </c>
-      <c r="C84" t="n" s="2770">
+      <c r="C84" s="2770" t="n">
         <v>2.0</v>
       </c>
       <c r="D84" s="2777" t="n">
@@ -14779,13 +15431,13 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="2771">
+      <c r="A85" s="2771" t="s">
         <v>17</v>
       </c>
-      <c r="B85" t="s" s="2772">
+      <c r="B85" s="2772" t="s">
         <v>93</v>
       </c>
-      <c r="C85" t="n" s="2773">
+      <c r="C85" s="2773" t="n">
         <v>2.0</v>
       </c>
       <c r="D85" s="2779" t="n">
@@ -14796,13 +15448,13 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2774">
+      <c r="A86" s="2774" t="s">
         <v>17</v>
       </c>
-      <c r="B86" t="s" s="2775">
+      <c r="B86" s="2775" t="s">
         <v>131</v>
       </c>
-      <c r="C86" t="n" s="2776">
+      <c r="C86" s="2776" t="n">
         <v>2.0</v>
       </c>
       <c r="D86" s="2781" t="n">
@@ -14813,13 +15465,13 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2783">
+      <c r="A87" s="2783" t="s">
         <v>23</v>
       </c>
-      <c r="B87" t="s" s="2784">
+      <c r="B87" s="2784" t="s">
         <v>95</v>
       </c>
-      <c r="C87" t="n" s="2785">
+      <c r="C87" s="2785" t="n">
         <v>1.0</v>
       </c>
       <c r="D87" s="2789" t="n">
@@ -14830,13 +15482,13 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2786">
+      <c r="A88" s="2786" t="s">
         <v>23</v>
       </c>
-      <c r="B88" t="s" s="2787">
+      <c r="B88" s="2787" t="s">
         <v>124</v>
       </c>
-      <c r="C88" t="n" s="2788">
+      <c r="C88" s="2788" t="n">
         <v>1.0</v>
       </c>
       <c r="D88" s="2791" t="n">
@@ -14882,6 +15534,513 @@
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="E87:E88"/>
   </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="19.53125" customWidth="true"/>
+    <col min="2" max="2" width="27.34375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="60.0" customHeight="true">
+      <c r="A1" t="s" s="2793">
+        <v>221</v>
+      </c>
+      <c r="B1" t="s" s="2794">
+        <v>175</v>
+      </c>
+      <c r="C1" t="s" s="2795">
+        <v>176</v>
+      </c>
+      <c r="D1" t="s" s="2796">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2797">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n" s="2798">
+        <v>5.0</v>
+      </c>
+      <c r="C2" t="n" s="2799">
+        <v>63.857142857142854</v>
+      </c>
+      <c r="D2" t="n" s="2800">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2801">
+        <v>9</v>
+      </c>
+      <c r="B3" t="n" s="2802">
+        <v>3.0</v>
+      </c>
+      <c r="C3" t="n" s="2803">
+        <v>56.714285714285715</v>
+      </c>
+      <c r="D3" t="n" s="2804">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2805">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n" s="2806">
+        <v>5.0</v>
+      </c>
+      <c r="C4" t="n" s="2807">
+        <v>35.285714285714285</v>
+      </c>
+      <c r="D4" t="n" s="2808">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2809">
+        <v>13</v>
+      </c>
+      <c r="B5" t="n" s="2810">
+        <v>1.0</v>
+      </c>
+      <c r="C5" t="n" s="2811">
+        <v>85.28571428571429</v>
+      </c>
+      <c r="D5" t="n" s="2812">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2813">
+        <v>16</v>
+      </c>
+      <c r="B6" t="n" s="2814">
+        <v>36.0</v>
+      </c>
+      <c r="C6" t="n" s="2815">
+        <v>66.67032967032968</v>
+      </c>
+      <c r="D6" t="n" s="2816">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2817">
+        <v>31</v>
+      </c>
+      <c r="B7" t="n" s="2818">
+        <v>18.0</v>
+      </c>
+      <c r="C7" t="n" s="2819">
+        <v>67.42857142857143</v>
+      </c>
+      <c r="D7" t="n" s="2820">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2821">
+        <v>42</v>
+      </c>
+      <c r="B8" t="n" s="2822">
+        <v>10.0</v>
+      </c>
+      <c r="C8" t="n" s="2823">
+        <v>63.857142857142854</v>
+      </c>
+      <c r="D8" t="n" s="2824">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2825">
+        <v>47</v>
+      </c>
+      <c r="B9" t="n" s="2826">
+        <v>3.0</v>
+      </c>
+      <c r="C9" t="n" s="2827">
+        <v>78.14285714285715</v>
+      </c>
+      <c r="D9" t="n" s="2828">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2829">
+        <v>50</v>
+      </c>
+      <c r="B10" t="n" s="2830">
+        <v>2.0</v>
+      </c>
+      <c r="C10" t="n" s="2831">
+        <v>71.0</v>
+      </c>
+      <c r="D10" t="n" s="2832">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2833">
+        <v>52</v>
+      </c>
+      <c r="B11" t="n" s="2834">
+        <v>8.0</v>
+      </c>
+      <c r="C11" t="n" s="2835">
+        <v>61.476190476190474</v>
+      </c>
+      <c r="D11" t="n" s="2836">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2837">
+        <v>57</v>
+      </c>
+      <c r="B12" t="n" s="2838">
+        <v>7.0</v>
+      </c>
+      <c r="C12" t="n" s="2839">
+        <v>75.90476190476191</v>
+      </c>
+      <c r="D12" t="n" s="2840">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2841">
+        <v>63</v>
+      </c>
+      <c r="B13" t="n" s="2842">
+        <v>3.0</v>
+      </c>
+      <c r="C13" t="n" s="2843">
+        <v>56.714285714285715</v>
+      </c>
+      <c r="D13" t="n" s="2844">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2845">
+        <v>66</v>
+      </c>
+      <c r="B14" t="n" s="2846">
+        <v>5.0</v>
+      </c>
+      <c r="C14" t="n" s="2847">
+        <v>63.857142857142854</v>
+      </c>
+      <c r="D14" t="n" s="2848">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2849">
+        <v>70</v>
+      </c>
+      <c r="B15" t="n" s="2850">
+        <v>7.0</v>
+      </c>
+      <c r="C15" t="n" s="2851">
+        <v>66.23809523809524</v>
+      </c>
+      <c r="D15" t="n" s="2852">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2853">
+        <v>75</v>
+      </c>
+      <c r="B16" t="n" s="2854">
+        <v>2.0</v>
+      </c>
+      <c r="C16" t="n" s="2855">
+        <v>71.0</v>
+      </c>
+      <c r="D16" t="n" s="2856">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2857">
+        <v>77</v>
+      </c>
+      <c r="B17" t="n" s="2858">
+        <v>2.0</v>
+      </c>
+      <c r="C17" t="n" s="2859">
+        <v>71.0</v>
+      </c>
+      <c r="D17" t="n" s="2860">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2861">
+        <v>80</v>
+      </c>
+      <c r="B18" t="n" s="2862">
+        <v>6.0</v>
+      </c>
+      <c r="C18" t="n" s="2863">
+        <v>71.0</v>
+      </c>
+      <c r="D18" t="n" s="2864">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2865">
+        <v>84</v>
+      </c>
+      <c r="B19" t="n" s="2866">
+        <v>5.0</v>
+      </c>
+      <c r="C19" t="n" s="2867">
+        <v>63.857142857142854</v>
+      </c>
+      <c r="D19" t="n" s="2868">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2869">
+        <v>88</v>
+      </c>
+      <c r="B20" t="n" s="2870">
+        <v>16.0</v>
+      </c>
+      <c r="C20" t="n" s="2871">
+        <v>66.91836734693878</v>
+      </c>
+      <c r="D20" t="n" s="2872">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2873">
+        <v>97</v>
+      </c>
+      <c r="B21" t="n" s="2874">
+        <v>6.0</v>
+      </c>
+      <c r="C21" t="n" s="2875">
+        <v>71.0</v>
+      </c>
+      <c r="D21" t="n" s="2876">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2877">
+        <v>102</v>
+      </c>
+      <c r="B22" t="n" s="2878">
+        <v>2.0</v>
+      </c>
+      <c r="C22" t="n" s="2879">
+        <v>71.0</v>
+      </c>
+      <c r="D22" t="n" s="2880">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2881">
+        <v>105</v>
+      </c>
+      <c r="B23" t="n" s="2882">
+        <v>4.0</v>
+      </c>
+      <c r="C23" t="n" s="2883">
+        <v>71.0</v>
+      </c>
+      <c r="D23" t="n" s="2884">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2885">
+        <v>109</v>
+      </c>
+      <c r="B24" t="n" s="2886">
+        <v>3.0</v>
+      </c>
+      <c r="C24" t="n" s="2887">
+        <v>56.714285714285715</v>
+      </c>
+      <c r="D24" t="n" s="2888">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2889">
+        <v>112</v>
+      </c>
+      <c r="B25" t="n" s="2890">
+        <v>4.0</v>
+      </c>
+      <c r="C25" t="n" s="2891">
+        <v>92.64285714285714</v>
+      </c>
+      <c r="D25" t="n" s="2892">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2893">
+        <v>115</v>
+      </c>
+      <c r="B26" t="n" s="2894">
+        <v>4.0</v>
+      </c>
+      <c r="C26" t="n" s="2895">
+        <v>71.0</v>
+      </c>
+      <c r="D26" t="n" s="2896">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2897">
+        <v>118</v>
+      </c>
+      <c r="B27" t="n" s="2898">
+        <v>4.0</v>
+      </c>
+      <c r="C27" t="n" s="2899">
+        <v>71.0</v>
+      </c>
+      <c r="D27" t="n" s="2900">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2901">
+        <v>121</v>
+      </c>
+      <c r="B28" t="n" s="2902">
+        <v>4.0</v>
+      </c>
+      <c r="C28" t="n" s="2903">
+        <v>80.52380952380952</v>
+      </c>
+      <c r="D28" t="n" s="2904">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2905">
+        <v>125</v>
+      </c>
+      <c r="B29" t="n" s="2906">
+        <v>3.0</v>
+      </c>
+      <c r="C29" t="n" s="2907">
+        <v>85.5</v>
+      </c>
+      <c r="D29" t="n" s="2908">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2909">
+        <v>128</v>
+      </c>
+      <c r="B30" t="n" s="2910">
+        <v>2.0</v>
+      </c>
+      <c r="C30" t="n" s="2911">
+        <v>71.0</v>
+      </c>
+      <c r="D30" t="n" s="2912">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2913">
+        <v>130</v>
+      </c>
+      <c r="B31" t="n" s="2914">
+        <v>2.0</v>
+      </c>
+      <c r="C31" t="n" s="2915">
+        <v>71.0</v>
+      </c>
+      <c r="D31" t="n" s="2916">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2917">
+        <v>133</v>
+      </c>
+      <c r="B32" t="n" s="2918">
+        <v>2.0</v>
+      </c>
+      <c r="C32" t="n" s="2919">
+        <v>100.0</v>
+      </c>
+      <c r="D32" t="n" s="2920">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2921">
+        <v>136</v>
+      </c>
+      <c r="B33" t="n" s="2922">
+        <v>7.0</v>
+      </c>
+      <c r="C33" t="n" s="2923">
+        <v>49.57142857142857</v>
+      </c>
+      <c r="D33" t="n" s="2924">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2925">
+        <v>140</v>
+      </c>
+      <c r="B34" t="n" s="2926">
+        <v>7.0</v>
+      </c>
+      <c r="C34" t="n" s="2927">
+        <v>66.23809523809524</v>
+      </c>
+      <c r="D34" t="n" s="2928">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2929">
+        <v>145</v>
+      </c>
+      <c r="B35" t="n" s="2930">
+        <v>5.0</v>
+      </c>
+      <c r="C35" t="n" s="2931">
+        <v>63.857142857142854</v>
+      </c>
+      <c r="D35" t="n" s="2932">
+        <v>2.0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -21113,514 +22272,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:E35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="19.571428571428573" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.285714285714285" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="60" r="1" spans="1:4" thickBot="1">
-      <c r="A1" s="2209" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="2210" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="2211" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="2212" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A2" s="2213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2214">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2215">
-        <v>63.857142857142854</v>
-      </c>
-      <c r="D2" s="2216">
-        <v>2</v>
-      </c>
-    </row>
-    <row ht="15" r="3" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A3" s="2217" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2218">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2219">
-        <v>56.714285714285715</v>
-      </c>
-      <c r="D3" s="2220">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="15" r="4" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A4" s="2221" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2222">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2223">
-        <v>35.285714285714285</v>
-      </c>
-      <c r="D4" s="2224">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="15" r="5" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A5" s="2225" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2226">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2227">
-        <v>85.28571428571429</v>
-      </c>
-      <c r="D5" s="2228">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="15" r="6" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A6" s="2229" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2230">
-        <v>50</v>
-      </c>
-      <c r="C6" s="2231">
-        <v>66.67032967032968</v>
-      </c>
-      <c r="D6" s="2232">
-        <v>13</v>
-      </c>
-    </row>
-    <row ht="15" r="7" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A7" s="2233" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2234">
-        <v>68</v>
-      </c>
-      <c r="C7" s="2235">
-        <v>67.42857142857143</v>
-      </c>
-      <c r="D7" s="2236">
-        <v>8</v>
-      </c>
-    </row>
-    <row ht="15" r="8" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A8" s="2237" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="2238">
-        <v>78</v>
-      </c>
-      <c r="C8" s="2239">
-        <v>63.857142857142854</v>
-      </c>
-      <c r="D8" s="2240">
-        <v>4</v>
-      </c>
-    </row>
-    <row ht="15" r="9" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A9" s="2241" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="2242">
-        <v>81</v>
-      </c>
-      <c r="C9" s="2243">
-        <v>78.14285714285715</v>
-      </c>
-      <c r="D9" s="2244">
-        <v>2</v>
-      </c>
-    </row>
-    <row ht="15" r="10" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A10" s="2245" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="2246">
-        <v>83</v>
-      </c>
-      <c r="C10" s="2247">
-        <v>71</v>
-      </c>
-      <c r="D10" s="2248">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="15" r="11" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A11" s="2249" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="2250">
-        <v>91</v>
-      </c>
-      <c r="C11" s="2251">
-        <v>61.476190476190474</v>
-      </c>
-      <c r="D11" s="2252">
-        <v>3</v>
-      </c>
-    </row>
-    <row ht="15" r="12" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A12" s="2253" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="2254">
-        <v>98</v>
-      </c>
-      <c r="C12" s="2255">
-        <v>75.90476190476191</v>
-      </c>
-      <c r="D12" s="2256">
-        <v>3</v>
-      </c>
-    </row>
-    <row ht="15" r="13" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A13" s="2257" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="2258">
-        <v>101</v>
-      </c>
-      <c r="C13" s="2259">
-        <v>56.714285714285715</v>
-      </c>
-      <c r="D13" s="2260">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="15" r="14" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A14" s="2261" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="2262">
-        <v>106</v>
-      </c>
-      <c r="C14" s="2263">
-        <v>63.857142857142854</v>
-      </c>
-      <c r="D14" s="2264">
-        <v>2</v>
-      </c>
-    </row>
-    <row ht="15" r="15" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A15" s="2265" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="2266">
-        <v>113</v>
-      </c>
-      <c r="C15" s="2267">
-        <v>66.23809523809524</v>
-      </c>
-      <c r="D15" s="2268">
-        <v>3</v>
-      </c>
-    </row>
-    <row ht="15" r="16" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A16" s="2269" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="2270">
-        <v>115</v>
-      </c>
-      <c r="C16" s="2271">
-        <v>71</v>
-      </c>
-      <c r="D16" s="2272">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="15" r="17" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A17" s="2273" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="2274">
-        <v>117</v>
-      </c>
-      <c r="C17" s="2275">
-        <v>71</v>
-      </c>
-      <c r="D17" s="2276">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="15" r="18" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A18" s="2277" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="2278">
-        <v>123</v>
-      </c>
-      <c r="C18" s="2279">
-        <v>71</v>
-      </c>
-      <c r="D18" s="2280">
-        <v>3</v>
-      </c>
-    </row>
-    <row ht="15" r="19" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A19" s="2281" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="2282">
-        <v>128</v>
-      </c>
-      <c r="C19" s="2283">
-        <v>63.857142857142854</v>
-      </c>
-      <c r="D19" s="2284">
-        <v>2</v>
-      </c>
-    </row>
-    <row ht="15" r="20" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A20" s="2285" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="2286">
-        <v>144</v>
-      </c>
-      <c r="C20" s="2287">
-        <v>66.91836734693878</v>
-      </c>
-      <c r="D20" s="2288">
-        <v>7</v>
-      </c>
-    </row>
-    <row ht="15" r="21" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A21" s="2289" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="2290">
-        <v>150</v>
-      </c>
-      <c r="C21" s="2291">
-        <v>71</v>
-      </c>
-      <c r="D21" s="2292">
-        <v>3</v>
-      </c>
-    </row>
-    <row ht="15" r="22" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A22" s="2293" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="2294">
-        <v>152</v>
-      </c>
-      <c r="C22" s="2295">
-        <v>71</v>
-      </c>
-      <c r="D22" s="2296">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="15" r="23" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A23" s="2297" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="2298">
-        <v>156</v>
-      </c>
-      <c r="C23" s="2299">
-        <v>71</v>
-      </c>
-      <c r="D23" s="2300">
-        <v>2</v>
-      </c>
-    </row>
-    <row ht="15" r="24" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A24" s="2301" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="2302">
-        <v>159</v>
-      </c>
-      <c r="C24" s="2303">
-        <v>56.714285714285715</v>
-      </c>
-      <c r="D24" s="2304">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="15" r="25" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A25" s="2305" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="2306">
-        <v>163</v>
-      </c>
-      <c r="C25" s="2307">
-        <v>92.64285714285714</v>
-      </c>
-      <c r="D25" s="2308">
-        <v>2</v>
-      </c>
-    </row>
-    <row ht="15" r="26" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A26" s="2309" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="2310">
-        <v>167</v>
-      </c>
-      <c r="C26" s="2311">
-        <v>71</v>
-      </c>
-      <c r="D26" s="2312">
-        <v>2</v>
-      </c>
-    </row>
-    <row ht="15" r="27" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A27" s="2313" t="s">
-        <v>118</v>
-      </c>
-      <c r="B27" s="2314">
-        <v>171</v>
-      </c>
-      <c r="C27" s="2315">
-        <v>71</v>
-      </c>
-      <c r="D27" s="2316">
-        <v>2</v>
-      </c>
-    </row>
-    <row ht="15" r="28" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A28" s="2317" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="2318">
-        <v>175</v>
-      </c>
-      <c r="C28" s="2319">
-        <v>80.52380952380952</v>
-      </c>
-      <c r="D28" s="2320">
-        <v>3</v>
-      </c>
-    </row>
-    <row ht="15" r="29" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A29" s="2321" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="2322">
-        <v>178</v>
-      </c>
-      <c r="C29" s="2323">
-        <v>85.50</v>
-      </c>
-      <c r="D29" s="2324">
-        <v>2</v>
-      </c>
-    </row>
-    <row ht="15" r="30" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A30" s="2325" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" s="2326">
-        <v>180</v>
-      </c>
-      <c r="C30" s="2327">
-        <v>71</v>
-      </c>
-      <c r="D30" s="2328">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="15" r="31" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A31" s="2329" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" s="2330">
-        <v>182</v>
-      </c>
-      <c r="C31" s="2331">
-        <v>71</v>
-      </c>
-      <c r="D31" s="2332">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="15" r="32" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A32" s="2333" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" s="2334">
-        <v>184</v>
-      </c>
-      <c r="C32" s="2335">
-        <v>100</v>
-      </c>
-      <c r="D32" s="2336">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="15" r="33" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A33" s="2337" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33" s="2338">
-        <v>191</v>
-      </c>
-      <c r="C33" s="2339">
-        <v>49.57142857142857</v>
-      </c>
-      <c r="D33" s="2340">
-        <v>2</v>
-      </c>
-    </row>
-    <row ht="15" r="34" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A34" s="2341" t="s">
-        <v>140</v>
-      </c>
-      <c r="B34" s="2342">
-        <v>198</v>
-      </c>
-      <c r="C34" s="2343">
-        <v>66.23809523809524</v>
-      </c>
-      <c r="D34" s="2344">
-        <v>3</v>
-      </c>
-    </row>
-    <row ht="15" r="35" spans="1:4" thickBot="1" thickTop="1">
-      <c r="A35" s="2345" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35" s="2346">
-        <v>203</v>
-      </c>
-      <c r="C35" s="2347">
-        <v>63.857142857142854</v>
-      </c>
-      <c r="D35" s="2348">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <dimension ref="A1"/>

--- a/output/revenue_template_v1final312.xlsx
+++ b/output/revenue_template_v1final312.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="243">
   <si>
     <t>Row Labels</t>
   </si>
@@ -742,6 +742,18 @@
   </si>
   <si>
     <t>Pavlo Marunchak</t>
+  </si>
+  <si>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>2.37</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>1.71</t>
   </si>
 </sst>
 </file>
@@ -753,7 +765,7 @@
     <numFmt numFmtId="165" formatCode="#"/>
     <numFmt numFmtId="166" formatCode="#.##"/>
   </numFmts>
-  <fonts count="267" x14ac:knownFonts="1">
+  <fonts count="356" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2100,8 +2112,453 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2147,8 +2604,16 @@
         <fgColor indexed="49"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="51">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -2558,11 +3023,83 @@
       <top style="thick"/>
       <bottom style="thick"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2667">
+  <cellXfs count="3294">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
@@ -9478,526 +10015,2407 @@
     <xf applyBorder="true" borderId="46" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="181" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="202" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="203" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="206" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="209" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="211" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="213" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="214" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="215" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="217" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="218" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="229" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="230" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="231" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="232" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="233" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="239" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="241" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="243" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="244" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="245" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="246" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="247" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="248" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="249" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="251" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="256" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="260" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="261" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="262" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="263" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="264" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="265" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="266" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true">
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="93" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="94" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="95" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="96" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="97" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="98" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="99" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="101" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="102" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="103" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="104" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="105" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="106" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="107" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="108" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="109" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="110" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="111" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="112" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="113" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="114" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="116" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="117" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="118" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="119" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="120" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="121" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="122" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="123" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="124" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="125" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="126" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="127" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="128" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="129" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="131" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="132" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="133" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="134" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="135" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="136" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="137" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="138" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="139" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="140" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="141" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="142" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="143" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="144" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="147" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="148" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="149" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="150" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="151" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="152" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="153" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="154" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="155" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="156" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="157" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="158" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="159" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="161" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="163" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="164" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="165" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="166" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="167" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="168" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="169" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="170" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="171" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="172" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="173" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="174" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="176" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="178" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="179" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="180" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="181" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="182" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="183" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="184" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="185" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="186" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="187" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="188" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="189" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="190" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="191" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="193" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="194" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="195" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="196" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="197" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="198" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="199" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="200" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="201" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="202" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="203" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="204" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="205" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="206" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="207" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="208" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="209" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="210" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="211" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="212" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="213" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="214" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="215" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="216" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="217" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="218" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="219" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="220" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="221" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="222" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="223" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="224" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="225" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="226" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="227" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="228" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="229" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="230" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="231" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="232" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="233" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="234" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="235" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="236" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="237" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="238" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="239" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="240" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="241" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="242" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="243" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="244" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="245" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="246" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="247" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="248" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="249" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="250" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="251" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="252" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="253" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="254" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="255" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="256" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="257" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="258" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="259" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="260" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="261" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="262" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="263" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="264" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="265" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="50" fillId="0" fontId="266" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="58" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="58" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="58" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="58" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="58" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="58" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="58" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="58" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -13837,10 +16255,10 @@
       <c r="Q2" s="140" t="s">
         <v>182</v>
       </c>
-      <c r="R2" s="1866" t="n">
+      <c r="R2" s="2667" t="n">
         <v>63.857142857142854</v>
       </c>
-      <c r="S2" s="1867" t="n">
+      <c r="S2" s="2668" t="n">
         <v>44.51754385964912</v>
       </c>
       <c r="W2" s="1843" t="s">
@@ -13895,10 +16313,10 @@
       <c r="Q3" s="142" t="s">
         <v>182</v>
       </c>
-      <c r="R3" s="1868" t="n">
+      <c r="R3" s="2669" t="n">
         <v>63.857142857142854</v>
       </c>
-      <c r="S3" s="1869" t="n">
+      <c r="S3" s="2670" t="n">
         <v>44.51754385964912</v>
       </c>
       <c r="T3" s="1844" t="s">
@@ -13962,10 +16380,10 @@
       <c r="Q4" s="162" t="s">
         <v>184</v>
       </c>
-      <c r="R4" s="1870" t="n">
+      <c r="R4" s="2671" t="n">
         <v>56.714285714285715</v>
       </c>
-      <c r="S4" s="1871" t="n">
+      <c r="S4" s="2672" t="n">
         <v>33.55263157894737</v>
       </c>
       <c r="T4" s="1848" t="s">
@@ -14029,10 +16447,10 @@
       <c r="Q5" s="182" t="s">
         <v>186</v>
       </c>
-      <c r="R5" s="1872" t="n">
+      <c r="R5" s="2673" t="n">
         <v>35.285714285714285</v>
       </c>
-      <c r="S5" s="1873" t="n">
+      <c r="S5" s="2674" t="n">
         <v>0.6578947368421052</v>
       </c>
       <c r="T5" s="1852" t="s">
@@ -14096,10 +16514,10 @@
       <c r="Q6" s="202" t="s">
         <v>188</v>
       </c>
-      <c r="R6" s="1874" t="n">
+      <c r="R6" s="2675" t="n">
         <v>85.28571428571429</v>
       </c>
-      <c r="S6" s="1875" t="n">
+      <c r="S6" s="2676" t="n">
         <v>77.41228070175438</v>
       </c>
       <c r="T6" s="1856" t="s">
@@ -14163,10 +16581,10 @@
       <c r="Q7" s="437" t="s">
         <v>196</v>
       </c>
-      <c r="R7" s="1876" t="n">
+      <c r="R7" s="2677" t="n">
         <v>71.0989010989011</v>
       </c>
-      <c r="S7" s="1877" t="n">
+      <c r="S7" s="2678" t="n">
         <v>55.634278002699055</v>
       </c>
       <c r="T7" s="1860" t="s">
@@ -14232,10 +16650,10 @@
       <c r="Q8" s="439" t="s">
         <v>196</v>
       </c>
-      <c r="R8" s="1878" t="n">
+      <c r="R8" s="2679" t="n">
         <v>71.0989010989011</v>
       </c>
-      <c r="S8" s="1879" t="n">
+      <c r="S8" s="2680" t="n">
         <v>55.634278002699055</v>
       </c>
       <c r="T8" s="1864" t="s">
@@ -14295,10 +16713,10 @@
       <c r="Q9" s="441" t="s">
         <v>196</v>
       </c>
-      <c r="R9" s="1880" t="n">
+      <c r="R9" s="2681" t="n">
         <v>71.0989010989011</v>
       </c>
-      <c r="S9" s="1881" t="n">
+      <c r="S9" s="2682" t="n">
         <v>55.634278002699055</v>
       </c>
     </row>
@@ -14352,10 +16770,10 @@
       <c r="Q10" s="443" t="s">
         <v>196</v>
       </c>
-      <c r="R10" s="1882" t="n">
+      <c r="R10" s="2683" t="n">
         <v>71.0989010989011</v>
       </c>
-      <c r="S10" s="1883" t="n">
+      <c r="S10" s="2684" t="n">
         <v>55.634278002699055</v>
       </c>
     </row>
@@ -14409,10 +16827,10 @@
       <c r="Q11" s="445" t="s">
         <v>196</v>
       </c>
-      <c r="R11" s="1884" t="n">
+      <c r="R11" s="2685" t="n">
         <v>71.0989010989011</v>
       </c>
-      <c r="S11" s="1885" t="n">
+      <c r="S11" s="2686" t="n">
         <v>55.634278002699055</v>
       </c>
     </row>
@@ -14464,10 +16882,10 @@
       <c r="Q12" s="447" t="s">
         <v>196</v>
       </c>
-      <c r="R12" s="1886" t="n">
+      <c r="R12" s="2687" t="n">
         <v>71.0989010989011</v>
       </c>
-      <c r="S12" s="1887" t="n">
+      <c r="S12" s="2688" t="n">
         <v>55.634278002699055</v>
       </c>
     </row>
@@ -14519,10 +16937,10 @@
       <c r="Q13" s="449" t="s">
         <v>196</v>
       </c>
-      <c r="R13" s="1888" t="n">
+      <c r="R13" s="2689" t="n">
         <v>71.0989010989011</v>
       </c>
-      <c r="S13" s="1889" t="n">
+      <c r="S13" s="2690" t="n">
         <v>55.634278002699055</v>
       </c>
     </row>
@@ -14574,10 +16992,10 @@
       <c r="Q14" s="451" t="s">
         <v>196</v>
       </c>
-      <c r="R14" s="1890" t="n">
+      <c r="R14" s="2691" t="n">
         <v>71.0989010989011</v>
       </c>
-      <c r="S14" s="1891" t="n">
+      <c r="S14" s="2692" t="n">
         <v>55.634278002699055</v>
       </c>
     </row>
@@ -14629,10 +17047,10 @@
       <c r="Q15" s="453" t="s">
         <v>196</v>
       </c>
-      <c r="R15" s="1892" t="n">
+      <c r="R15" s="2693" t="n">
         <v>71.0989010989011</v>
       </c>
-      <c r="S15" s="1893" t="n">
+      <c r="S15" s="2694" t="n">
         <v>55.634278002699055</v>
       </c>
     </row>
@@ -14684,10 +17102,10 @@
       <c r="Q16" s="455" t="s">
         <v>196</v>
       </c>
-      <c r="R16" s="1894" t="n">
+      <c r="R16" s="2695" t="n">
         <v>71.0989010989011</v>
       </c>
-      <c r="S16" s="1895" t="n">
+      <c r="S16" s="2696" t="n">
         <v>55.634278002699055</v>
       </c>
     </row>
@@ -14739,10 +17157,10 @@
       <c r="Q17" s="457" t="s">
         <v>196</v>
       </c>
-      <c r="R17" s="1896" t="n">
+      <c r="R17" s="2697" t="n">
         <v>71.0989010989011</v>
       </c>
-      <c r="S17" s="1897" t="n">
+      <c r="S17" s="2698" t="n">
         <v>55.634278002699055</v>
       </c>
     </row>
@@ -14794,10 +17212,10 @@
       <c r="Q18" s="459" t="s">
         <v>196</v>
       </c>
-      <c r="R18" s="1898" t="n">
+      <c r="R18" s="2699" t="n">
         <v>71.0989010989011</v>
       </c>
-      <c r="S18" s="1899" t="n">
+      <c r="S18" s="2700" t="n">
         <v>55.634278002699055</v>
       </c>
     </row>
@@ -14849,10 +17267,10 @@
       <c r="Q19" s="461" t="s">
         <v>196</v>
       </c>
-      <c r="R19" s="1900" t="n">
+      <c r="R19" s="2701" t="n">
         <v>71.0989010989011</v>
       </c>
-      <c r="S19" s="1901" t="n">
+      <c r="S19" s="2702" t="n">
         <v>55.634278002699055</v>
       </c>
     </row>
@@ -14904,10 +17322,10 @@
       <c r="Q20" s="604" t="s">
         <v>200</v>
       </c>
-      <c r="R20" s="1902" t="n">
+      <c r="R20" s="2703" t="n">
         <v>67.42857142857143</v>
       </c>
-      <c r="S20" s="1903" t="n">
+      <c r="S20" s="2704" t="n">
         <v>50.0</v>
       </c>
     </row>
@@ -14959,10 +17377,10 @@
       <c r="Q21" s="606" t="s">
         <v>200</v>
       </c>
-      <c r="R21" s="1904" t="n">
+      <c r="R21" s="2705" t="n">
         <v>67.42857142857143</v>
       </c>
-      <c r="S21" s="1905" t="n">
+      <c r="S21" s="2706" t="n">
         <v>50.0</v>
       </c>
     </row>
@@ -15014,10 +17432,10 @@
       <c r="Q22" s="608" t="s">
         <v>200</v>
       </c>
-      <c r="R22" s="1906" t="n">
+      <c r="R22" s="2707" t="n">
         <v>67.42857142857143</v>
       </c>
-      <c r="S22" s="1907" t="n">
+      <c r="S22" s="2708" t="n">
         <v>50.0</v>
       </c>
     </row>
@@ -15069,10 +17487,10 @@
       <c r="Q23" s="610" t="s">
         <v>200</v>
       </c>
-      <c r="R23" s="1908" t="n">
+      <c r="R23" s="2709" t="n">
         <v>67.42857142857143</v>
       </c>
-      <c r="S23" s="1909" t="n">
+      <c r="S23" s="2710" t="n">
         <v>50.0</v>
       </c>
     </row>
@@ -15126,10 +17544,10 @@
       <c r="Q24" s="612" t="s">
         <v>200</v>
       </c>
-      <c r="R24" s="1910" t="n">
+      <c r="R24" s="2711" t="n">
         <v>67.42857142857143</v>
       </c>
-      <c r="S24" s="1911" t="n">
+      <c r="S24" s="2712" t="n">
         <v>50.0</v>
       </c>
     </row>
@@ -15183,10 +17601,10 @@
       <c r="Q25" s="614" t="s">
         <v>200</v>
       </c>
-      <c r="R25" s="1912" t="n">
+      <c r="R25" s="2713" t="n">
         <v>67.42857142857143</v>
       </c>
-      <c r="S25" s="1913" t="n">
+      <c r="S25" s="2714" t="n">
         <v>50.0</v>
       </c>
     </row>
@@ -15240,10 +17658,10 @@
       <c r="Q26" s="616" t="s">
         <v>200</v>
       </c>
-      <c r="R26" s="1914" t="n">
+      <c r="R26" s="2715" t="n">
         <v>67.42857142857143</v>
       </c>
-      <c r="S26" s="1915" t="n">
+      <c r="S26" s="2716" t="n">
         <v>50.0</v>
       </c>
     </row>
@@ -15295,10 +17713,10 @@
       <c r="Q27" s="618" t="s">
         <v>200</v>
       </c>
-      <c r="R27" s="1916" t="n">
+      <c r="R27" s="2717" t="n">
         <v>67.42857142857143</v>
       </c>
-      <c r="S27" s="1917" t="n">
+      <c r="S27" s="2718" t="n">
         <v>50.0</v>
       </c>
     </row>
@@ -15350,10 +17768,10 @@
       <c r="Q28" s="692" t="s">
         <v>201</v>
       </c>
-      <c r="R28" s="1918" t="n">
+      <c r="R28" s="2719" t="n">
         <v>60.285714285714285</v>
       </c>
-      <c r="S28" s="1919" t="n">
+      <c r="S28" s="2720" t="n">
         <v>39.03508771929825</v>
       </c>
     </row>
@@ -15405,10 +17823,10 @@
       <c r="Q29" s="694" t="s">
         <v>201</v>
       </c>
-      <c r="R29" s="1920" t="n">
+      <c r="R29" s="2721" t="n">
         <v>60.285714285714285</v>
       </c>
-      <c r="S29" s="1921" t="n">
+      <c r="S29" s="2722" t="n">
         <v>39.03508771929825</v>
       </c>
     </row>
@@ -15460,10 +17878,10 @@
       <c r="Q30" s="696" t="s">
         <v>201</v>
       </c>
-      <c r="R30" s="1922" t="n">
+      <c r="R30" s="2723" t="n">
         <v>60.285714285714285</v>
       </c>
-      <c r="S30" s="1923" t="n">
+      <c r="S30" s="2724" t="n">
         <v>39.03508771929825</v>
       </c>
     </row>
@@ -15515,10 +17933,10 @@
       <c r="Q31" s="698" t="s">
         <v>201</v>
       </c>
-      <c r="R31" s="1924" t="n">
+      <c r="R31" s="2725" t="n">
         <v>60.285714285714285</v>
       </c>
-      <c r="S31" s="1925" t="n">
+      <c r="S31" s="2726" t="n">
         <v>39.03508771929825</v>
       </c>
     </row>
@@ -15570,10 +17988,10 @@
       <c r="Q32" s="736" t="s">
         <v>202</v>
       </c>
-      <c r="R32" s="1926" t="n">
+      <c r="R32" s="2727" t="n">
         <v>78.14285714285715</v>
       </c>
-      <c r="S32" s="1927" t="n">
+      <c r="S32" s="2728" t="n">
         <v>66.44736842105263</v>
       </c>
     </row>
@@ -15625,10 +18043,10 @@
       <c r="Q33" s="738" t="s">
         <v>202</v>
       </c>
-      <c r="R33" s="1928" t="n">
+      <c r="R33" s="2729" t="n">
         <v>78.14285714285715</v>
       </c>
-      <c r="S33" s="1929" t="n">
+      <c r="S33" s="2730" t="n">
         <v>66.44736842105263</v>
       </c>
     </row>
@@ -15680,10 +18098,10 @@
       <c r="Q34" s="758" t="s">
         <v>204</v>
       </c>
-      <c r="R34" s="1930" t="n">
+      <c r="R34" s="2731" t="n">
         <v>71.0</v>
       </c>
-      <c r="S34" s="1931" t="n">
+      <c r="S34" s="2732" t="n">
         <v>55.48245614035088</v>
       </c>
     </row>
@@ -15735,10 +18153,10 @@
       <c r="Q35" s="815" t="s">
         <v>206</v>
       </c>
-      <c r="R35" s="1932" t="n">
+      <c r="R35" s="2733" t="n">
         <v>75.90476190476191</v>
       </c>
-      <c r="S35" s="1933" t="n">
+      <c r="S35" s="2734" t="n">
         <v>63.01169590643275</v>
       </c>
     </row>
@@ -15790,10 +18208,10 @@
       <c r="Q36" s="817" t="s">
         <v>206</v>
       </c>
-      <c r="R36" s="1934" t="n">
+      <c r="R36" s="2735" t="n">
         <v>75.90476190476191</v>
       </c>
-      <c r="S36" s="1935" t="n">
+      <c r="S36" s="2736" t="n">
         <v>63.01169590643275</v>
       </c>
     </row>
@@ -15845,10 +18263,10 @@
       <c r="Q37" s="819" t="s">
         <v>206</v>
       </c>
-      <c r="R37" s="1936" t="n">
+      <c r="R37" s="2737" t="n">
         <v>75.90476190476191</v>
       </c>
-      <c r="S37" s="1937" t="n">
+      <c r="S37" s="2738" t="n">
         <v>63.01169590643275</v>
       </c>
     </row>
@@ -15900,10 +18318,10 @@
       <c r="Q38" s="876" t="s">
         <v>207</v>
       </c>
-      <c r="R38" s="1938" t="n">
+      <c r="R38" s="2739" t="n">
         <v>75.90476190476191</v>
       </c>
-      <c r="S38" s="1939" t="n">
+      <c r="S38" s="2740" t="n">
         <v>63.01169590643275</v>
       </c>
     </row>
@@ -15955,10 +18373,10 @@
       <c r="Q39" s="878" t="s">
         <v>207</v>
       </c>
-      <c r="R39" s="1940" t="n">
+      <c r="R39" s="2741" t="n">
         <v>75.90476190476191</v>
       </c>
-      <c r="S39" s="1941" t="n">
+      <c r="S39" s="2742" t="n">
         <v>63.01169590643275</v>
       </c>
     </row>
@@ -16010,10 +18428,10 @@
       <c r="Q40" s="880" t="s">
         <v>207</v>
       </c>
-      <c r="R40" s="1942" t="n">
+      <c r="R40" s="2743" t="n">
         <v>75.90476190476191</v>
       </c>
-      <c r="S40" s="1943" t="n">
+      <c r="S40" s="2744" t="n">
         <v>63.01169590643275</v>
       </c>
     </row>
@@ -16065,10 +18483,10 @@
       <c r="Q41" s="900" t="s">
         <v>184</v>
       </c>
-      <c r="R41" s="1944" t="n">
+      <c r="R41" s="2745" t="n">
         <v>56.714285714285715</v>
       </c>
-      <c r="S41" s="1945" t="n">
+      <c r="S41" s="2746" t="n">
         <v>33.55263157894737</v>
       </c>
     </row>
@@ -16120,10 +18538,10 @@
       <c r="Q42" s="938" t="s">
         <v>182</v>
       </c>
-      <c r="R42" s="1946" t="n">
+      <c r="R42" s="2747" t="n">
         <v>63.857142857142854</v>
       </c>
-      <c r="S42" s="1947" t="n">
+      <c r="S42" s="2748" t="n">
         <v>44.51754385964912</v>
       </c>
     </row>
@@ -16175,10 +18593,10 @@
       <c r="Q43" s="940" t="s">
         <v>182</v>
       </c>
-      <c r="R43" s="1948" t="n">
+      <c r="R43" s="2749" t="n">
         <v>63.857142857142854</v>
       </c>
-      <c r="S43" s="1949" t="n">
+      <c r="S43" s="2750" t="n">
         <v>44.51754385964912</v>
       </c>
     </row>
@@ -16230,10 +18648,10 @@
       <c r="Q44" s="994" t="s">
         <v>207</v>
       </c>
-      <c r="R44" s="1950" t="n">
+      <c r="R44" s="2751" t="n">
         <v>66.23809523809524</v>
       </c>
-      <c r="S44" s="1951" t="n">
+      <c r="S44" s="2752" t="n">
         <v>48.17251461988304</v>
       </c>
     </row>
@@ -16287,10 +18705,10 @@
       <c r="Q45" s="996" t="s">
         <v>207</v>
       </c>
-      <c r="R45" s="1952" t="n">
+      <c r="R45" s="2753" t="n">
         <v>66.23809523809524</v>
       </c>
-      <c r="S45" s="1953" t="n">
+      <c r="S45" s="2754" t="n">
         <v>48.17251461988304</v>
       </c>
     </row>
@@ -16344,10 +18762,10 @@
       <c r="Q46" s="998" t="s">
         <v>207</v>
       </c>
-      <c r="R46" s="1954" t="n">
+      <c r="R46" s="2755" t="n">
         <v>66.23809523809524</v>
       </c>
-      <c r="S46" s="1955" t="n">
+      <c r="S46" s="2756" t="n">
         <v>48.17251461988304</v>
       </c>
     </row>
@@ -16399,10 +18817,10 @@
       <c r="Q47" s="1018" t="s">
         <v>204</v>
       </c>
-      <c r="R47" s="1956" t="n">
+      <c r="R47" s="2757" t="n">
         <v>71.0</v>
       </c>
-      <c r="S47" s="1957" t="n">
+      <c r="S47" s="2758" t="n">
         <v>55.48245614035088</v>
       </c>
     </row>
@@ -16454,10 +18872,10 @@
       <c r="Q48" s="1038" t="s">
         <v>204</v>
       </c>
-      <c r="R48" s="1958" t="n">
+      <c r="R48" s="2759" t="n">
         <v>71.0</v>
       </c>
-      <c r="S48" s="1959" t="n">
+      <c r="S48" s="2760" t="n">
         <v>55.48245614035088</v>
       </c>
     </row>
@@ -16509,10 +18927,10 @@
       <c r="Q49" s="1094" t="s">
         <v>204</v>
       </c>
-      <c r="R49" s="1960" t="n">
+      <c r="R49" s="2761" t="n">
         <v>71.0</v>
       </c>
-      <c r="S49" s="1961" t="n">
+      <c r="S49" s="2762" t="n">
         <v>55.48245614035088</v>
       </c>
     </row>
@@ -16564,10 +18982,10 @@
       <c r="Q50" s="1096" t="s">
         <v>204</v>
       </c>
-      <c r="R50" s="1962" t="n">
+      <c r="R50" s="2763" t="n">
         <v>71.0</v>
       </c>
-      <c r="S50" s="1963" t="n">
+      <c r="S50" s="2764" t="n">
         <v>55.48245614035088</v>
       </c>
     </row>
@@ -16619,10 +19037,10 @@
       <c r="Q51" s="1098" t="s">
         <v>204</v>
       </c>
-      <c r="R51" s="1964" t="n">
+      <c r="R51" s="2765" t="n">
         <v>71.0</v>
       </c>
-      <c r="S51" s="1965" t="n">
+      <c r="S51" s="2766" t="n">
         <v>55.48245614035088</v>
       </c>
     </row>
@@ -16674,10 +19092,10 @@
       <c r="Q52" s="1136" t="s">
         <v>182</v>
       </c>
-      <c r="R52" s="1966" t="n">
+      <c r="R52" s="2767" t="n">
         <v>63.857142857142854</v>
       </c>
-      <c r="S52" s="1967" t="n">
+      <c r="S52" s="2768" t="n">
         <v>44.51754385964912</v>
       </c>
     </row>
@@ -16729,10 +19147,10 @@
       <c r="Q53" s="1138" t="s">
         <v>182</v>
       </c>
-      <c r="R53" s="1968" t="n">
+      <c r="R53" s="2769" t="n">
         <v>63.857142857142854</v>
       </c>
-      <c r="S53" s="1969" t="n">
+      <c r="S53" s="2770" t="n">
         <v>44.51754385964912</v>
       </c>
     </row>
@@ -16784,10 +19202,10 @@
       <c r="Q54" s="1264" t="s">
         <v>210</v>
       </c>
-      <c r="R54" s="1970" t="n">
+      <c r="R54" s="2771" t="n">
         <v>64.87755102040816</v>
       </c>
-      <c r="S54" s="1971" t="n">
+      <c r="S54" s="2772" t="n">
         <v>46.083959899749374</v>
       </c>
     </row>
@@ -16841,10 +19259,10 @@
       <c r="Q55" s="1266" t="s">
         <v>210</v>
       </c>
-      <c r="R55" s="1972" t="n">
+      <c r="R55" s="2773" t="n">
         <v>64.87755102040816</v>
       </c>
-      <c r="S55" s="1973" t="n">
+      <c r="S55" s="2774" t="n">
         <v>46.083959899749374</v>
       </c>
     </row>
@@ -16898,10 +19316,10 @@
       <c r="Q56" s="1268" t="s">
         <v>210</v>
       </c>
-      <c r="R56" s="1974" t="n">
+      <c r="R56" s="2775" t="n">
         <v>64.87755102040816</v>
       </c>
-      <c r="S56" s="1975" t="n">
+      <c r="S56" s="2776" t="n">
         <v>46.083959899749374</v>
       </c>
     </row>
@@ -16953,10 +19371,10 @@
       <c r="Q57" s="1270" t="s">
         <v>210</v>
       </c>
-      <c r="R57" s="1976" t="n">
+      <c r="R57" s="2777" t="n">
         <v>64.87755102040816</v>
       </c>
-      <c r="S57" s="1977" t="n">
+      <c r="S57" s="2778" t="n">
         <v>46.083959899749374</v>
       </c>
     </row>
@@ -17008,10 +19426,10 @@
       <c r="Q58" s="1272" t="s">
         <v>210</v>
       </c>
-      <c r="R58" s="1978" t="n">
+      <c r="R58" s="2779" t="n">
         <v>64.87755102040816</v>
       </c>
-      <c r="S58" s="1979" t="n">
+      <c r="S58" s="2780" t="n">
         <v>46.083959899749374</v>
       </c>
     </row>
@@ -17063,10 +19481,10 @@
       <c r="Q59" s="1274" t="s">
         <v>210</v>
       </c>
-      <c r="R59" s="1980" t="n">
+      <c r="R59" s="2781" t="n">
         <v>64.87755102040816</v>
       </c>
-      <c r="S59" s="1981" t="n">
+      <c r="S59" s="2782" t="n">
         <v>46.083959899749374</v>
       </c>
     </row>
@@ -17118,10 +19536,10 @@
       <c r="Q60" s="1276" t="s">
         <v>210</v>
       </c>
-      <c r="R60" s="1982" t="n">
+      <c r="R60" s="2783" t="n">
         <v>64.87755102040816</v>
       </c>
-      <c r="S60" s="1983" t="n">
+      <c r="S60" s="2784" t="n">
         <v>46.083959899749374</v>
       </c>
     </row>
@@ -17173,10 +19591,10 @@
       <c r="Q61" s="1331" t="s">
         <v>204</v>
       </c>
-      <c r="R61" s="1984" t="n">
+      <c r="R61" s="2785" t="n">
         <v>80.66666666666666</v>
       </c>
-      <c r="S61" s="1985" t="n">
+      <c r="S61" s="2786" t="n">
         <v>70.32163742690058</v>
       </c>
     </row>
@@ -17230,10 +19648,10 @@
       <c r="Q62" s="1333" t="s">
         <v>204</v>
       </c>
-      <c r="R62" s="1986" t="n">
+      <c r="R62" s="2787" t="n">
         <v>80.66666666666666</v>
       </c>
-      <c r="S62" s="1987" t="n">
+      <c r="S62" s="2788" t="n">
         <v>70.32163742690058</v>
       </c>
     </row>
@@ -17287,10 +19705,10 @@
       <c r="Q63" s="1335" t="s">
         <v>204</v>
       </c>
-      <c r="R63" s="1988" t="n">
+      <c r="R63" s="2789" t="n">
         <v>80.66666666666666</v>
       </c>
-      <c r="S63" s="1989" t="n">
+      <c r="S63" s="2790" t="n">
         <v>70.32163742690058</v>
       </c>
     </row>
@@ -17342,10 +19760,10 @@
       <c r="Q64" s="1355" t="s">
         <v>204</v>
       </c>
-      <c r="R64" s="1990" t="n">
+      <c r="R64" s="2791" t="n">
         <v>71.0</v>
       </c>
-      <c r="S64" s="1991" t="n">
+      <c r="S64" s="2792" t="n">
         <v>55.48245614035088</v>
       </c>
     </row>
@@ -17399,10 +19817,10 @@
       <c r="Q65" s="1391" t="s">
         <v>204</v>
       </c>
-      <c r="R65" s="1992" t="n">
+      <c r="R65" s="2793" t="n">
         <v>71.0</v>
       </c>
-      <c r="S65" s="1993" t="n">
+      <c r="S65" s="2794" t="n">
         <v>55.48245614035088</v>
       </c>
     </row>
@@ -17456,10 +19874,10 @@
       <c r="Q66" s="1393" t="s">
         <v>204</v>
       </c>
-      <c r="R66" s="1994" t="n">
+      <c r="R66" s="2795" t="n">
         <v>71.0</v>
       </c>
-      <c r="S66" s="1995" t="n">
+      <c r="S66" s="2796" t="n">
         <v>55.48245614035088</v>
       </c>
     </row>
@@ -17511,10 +19929,10 @@
       <c r="Q67" s="1413" t="s">
         <v>184</v>
       </c>
-      <c r="R67" s="1996" t="n">
+      <c r="R67" s="2797" t="n">
         <v>56.714285714285715</v>
       </c>
-      <c r="S67" s="1997" t="n">
+      <c r="S67" s="2798" t="n">
         <v>33.55263157894737</v>
       </c>
     </row>
@@ -17566,10 +19984,10 @@
       <c r="Q68" s="1452" t="s">
         <v>204</v>
       </c>
-      <c r="R68" s="1998" t="n">
+      <c r="R68" s="2799" t="n">
         <v>92.64285714285714</v>
       </c>
-      <c r="S68" s="1999" t="n">
+      <c r="S68" s="2800" t="n">
         <v>88.70614035087719</v>
       </c>
     </row>
@@ -17621,10 +20039,10 @@
       <c r="Q69" s="1454" t="s">
         <v>204</v>
       </c>
-      <c r="R69" s="2000" t="n">
+      <c r="R69" s="2801" t="n">
         <v>92.64285714285714</v>
       </c>
-      <c r="S69" s="2001" t="n">
+      <c r="S69" s="2802" t="n">
         <v>88.70614035087719</v>
       </c>
     </row>
@@ -17678,10 +20096,10 @@
       <c r="Q70" s="1490" t="s">
         <v>204</v>
       </c>
-      <c r="R70" s="2002" t="n">
+      <c r="R70" s="2803" t="n">
         <v>71.0</v>
       </c>
-      <c r="S70" s="2003" t="n">
+      <c r="S70" s="2804" t="n">
         <v>55.48245614035088</v>
       </c>
     </row>
@@ -17735,10 +20153,10 @@
       <c r="Q71" s="1492" t="s">
         <v>204</v>
       </c>
-      <c r="R71" s="2004" t="n">
+      <c r="R71" s="2805" t="n">
         <v>71.0</v>
       </c>
-      <c r="S71" s="2005" t="n">
+      <c r="S71" s="2806" t="n">
         <v>55.48245614035088</v>
       </c>
     </row>
@@ -17790,10 +20208,10 @@
       <c r="Q72" s="1530" t="s">
         <v>204</v>
       </c>
-      <c r="R72" s="2006" t="n">
+      <c r="R72" s="2807" t="n">
         <v>71.0</v>
       </c>
-      <c r="S72" s="2007" t="n">
+      <c r="S72" s="2808" t="n">
         <v>55.48245614035088</v>
       </c>
     </row>
@@ -17845,10 +20263,10 @@
       <c r="Q73" s="1532" t="s">
         <v>204</v>
       </c>
-      <c r="R73" s="2008" t="n">
+      <c r="R73" s="2809" t="n">
         <v>71.0</v>
       </c>
-      <c r="S73" s="2009" t="n">
+      <c r="S73" s="2810" t="n">
         <v>55.48245614035088</v>
       </c>
     </row>
@@ -17900,10 +20318,10 @@
       <c r="Q74" s="1586" t="s">
         <v>214</v>
       </c>
-      <c r="R74" s="2010" t="n">
+      <c r="R74" s="2811" t="n">
         <v>80.52380952380952</v>
       </c>
-      <c r="S74" s="2011" t="n">
+      <c r="S74" s="2812" t="n">
         <v>70.10233918128655</v>
       </c>
     </row>
@@ -17957,10 +20375,10 @@
       <c r="Q75" s="1588" t="s">
         <v>214</v>
       </c>
-      <c r="R75" s="2012" t="n">
+      <c r="R75" s="2813" t="n">
         <v>80.52380952380952</v>
       </c>
-      <c r="S75" s="2013" t="n">
+      <c r="S75" s="2814" t="n">
         <v>70.10233918128655</v>
       </c>
     </row>
@@ -18014,10 +20432,10 @@
       <c r="Q76" s="1590" t="s">
         <v>214</v>
       </c>
-      <c r="R76" s="2014" t="n">
+      <c r="R76" s="2815" t="n">
         <v>80.52380952380952</v>
       </c>
-      <c r="S76" s="2015" t="n">
+      <c r="S76" s="2816" t="n">
         <v>70.10233918128655</v>
       </c>
     </row>
@@ -18069,10 +20487,10 @@
       <c r="Q77" s="1629" t="s">
         <v>202</v>
       </c>
-      <c r="R77" s="2016" t="n">
+      <c r="R77" s="2817" t="n">
         <v>85.5</v>
       </c>
-      <c r="S77" s="2017" t="n">
+      <c r="S77" s="2818" t="n">
         <v>77.74122807017544</v>
       </c>
     </row>
@@ -18124,10 +20542,10 @@
       <c r="Q78" s="1631" t="s">
         <v>202</v>
       </c>
-      <c r="R78" s="2018" t="n">
+      <c r="R78" s="2819" t="n">
         <v>85.5</v>
       </c>
-      <c r="S78" s="2019" t="n">
+      <c r="S78" s="2820" t="n">
         <v>77.74122807017544</v>
       </c>
     </row>
@@ -18179,10 +20597,10 @@
       <c r="Q79" s="1651" t="s">
         <v>204</v>
       </c>
-      <c r="R79" s="2020" t="n">
+      <c r="R79" s="2821" t="n">
         <v>71.0</v>
       </c>
-      <c r="S79" s="2021" t="n">
+      <c r="S79" s="2822" t="n">
         <v>55.48245614035088</v>
       </c>
     </row>
@@ -18234,10 +20652,10 @@
       <c r="Q80" s="1671" t="s">
         <v>204</v>
       </c>
-      <c r="R80" s="2022" t="n">
+      <c r="R80" s="2823" t="n">
         <v>71.0</v>
       </c>
-      <c r="S80" s="2023" t="n">
+      <c r="S80" s="2824" t="n">
         <v>55.48245614035088</v>
       </c>
     </row>
@@ -18289,10 +20707,10 @@
       <c r="Q81" s="1692" t="s">
         <v>204</v>
       </c>
-      <c r="R81" s="2024" t="n">
+      <c r="R81" s="2825" t="n">
         <v>100.0</v>
       </c>
-      <c r="S81" s="2025" t="n">
+      <c r="S81" s="2826" t="n">
         <v>100.0</v>
       </c>
     </row>
@@ -18344,10 +20762,10 @@
       <c r="Q82" s="1730" t="s">
         <v>217</v>
       </c>
-      <c r="R82" s="2026" t="n">
+      <c r="R82" s="2827" t="n">
         <v>49.57142857142857</v>
       </c>
-      <c r="S82" s="2027" t="n">
+      <c r="S82" s="2828" t="n">
         <v>22.587719298245617</v>
       </c>
     </row>
@@ -18399,10 +20817,10 @@
       <c r="Q83" s="1732" t="s">
         <v>217</v>
       </c>
-      <c r="R83" s="2028" t="n">
+      <c r="R83" s="2829" t="n">
         <v>49.57142857142857</v>
       </c>
-      <c r="S83" s="2029" t="n">
+      <c r="S83" s="2830" t="n">
         <v>22.587719298245617</v>
       </c>
     </row>
@@ -18454,10 +20872,10 @@
       <c r="Q84" s="1788" t="s">
         <v>207</v>
       </c>
-      <c r="R84" s="2030" t="n">
+      <c r="R84" s="2831" t="n">
         <v>66.23809523809524</v>
       </c>
-      <c r="S84" s="2031" t="n">
+      <c r="S84" s="2832" t="n">
         <v>48.17251461988304</v>
       </c>
     </row>
@@ -18509,10 +20927,10 @@
       <c r="Q85" s="1790" t="s">
         <v>207</v>
       </c>
-      <c r="R85" s="2032" t="n">
+      <c r="R85" s="2833" t="n">
         <v>66.23809523809524</v>
       </c>
-      <c r="S85" s="2033" t="n">
+      <c r="S85" s="2834" t="n">
         <v>48.17251461988304</v>
       </c>
     </row>
@@ -18564,10 +20982,10 @@
       <c r="Q86" s="1792" t="s">
         <v>207</v>
       </c>
-      <c r="R86" s="2034" t="n">
+      <c r="R86" s="2835" t="n">
         <v>66.23809523809524</v>
       </c>
-      <c r="S86" s="2035" t="n">
+      <c r="S86" s="2836" t="n">
         <v>48.17251461988304</v>
       </c>
     </row>
@@ -18619,10 +21037,10 @@
       <c r="Q87" s="1830" t="s">
         <v>182</v>
       </c>
-      <c r="R87" s="2036" t="n">
+      <c r="R87" s="2837" t="n">
         <v>63.857142857142854</v>
       </c>
-      <c r="S87" s="2037" t="n">
+      <c r="S87" s="2838" t="n">
         <v>44.51754385964912</v>
       </c>
     </row>
@@ -18674,10 +21092,10 @@
       <c r="Q88" s="1832" t="s">
         <v>182</v>
       </c>
-      <c r="R88" s="2038" t="n">
+      <c r="R88" s="2839" t="n">
         <v>63.857142857142854</v>
       </c>
-      <c r="S88" s="2039" t="n">
+      <c r="S88" s="2840" t="n">
         <v>44.51754385964912</v>
       </c>
     </row>
@@ -18832,1547 +21250,1547 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.53125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="false"/>
+    <col min="1" max="1" width="19.53125" customWidth="true"/>
+    <col min="2" max="2" width="27.34375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="60.0" r="1">
-      <c r="A1" s="2040" t="s">
+    <row r="1" ht="60.0" customHeight="true">
+      <c r="A1" t="s" s="2841">
         <v>222</v>
       </c>
-      <c r="B1" s="2041" t="s">
+      <c r="B1" t="s" s="2842">
         <v>155</v>
       </c>
-      <c r="C1" s="2042" t="s">
+      <c r="C1" t="s" s="2843">
         <v>161</v>
       </c>
-      <c r="D1" s="2043" t="s">
+      <c r="D1" t="s" s="2844">
         <v>223</v>
       </c>
-      <c r="E1" s="2044" t="s">
+      <c r="E1" t="s" s="2845">
         <v>224</v>
       </c>
-      <c r="F1" s="2045" t="s">
+      <c r="F1" t="s" s="2846">
         <v>2</v>
       </c>
-      <c r="G1" s="2046" t="s">
+      <c r="G1" t="s" s="2847">
         <v>225</v>
       </c>
-      <c r="H1" s="2047" t="s">
+      <c r="H1" t="s" s="2848">
         <v>162</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2048" t="s">
+      <c r="A2" t="s" s="2849">
         <v>12</v>
       </c>
-      <c r="B2" s="2049" t="s">
+      <c r="B2" t="s" s="2850">
         <v>53</v>
       </c>
-      <c r="C2" s="2050" t="n">
+      <c r="C2" t="n" s="2851">
+        <v>3.0</v>
+      </c>
+      <c r="D2" s="2876" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E2" s="2877" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2852">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s" s="2853">
+        <v>119</v>
+      </c>
+      <c r="C3" t="n" s="2854">
+        <v>3.0</v>
+      </c>
+      <c r="D3" s="2878" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E3" s="2879" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2855">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s" s="2856">
+        <v>120</v>
+      </c>
+      <c r="C4" t="n" s="2857">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="2880" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E4" s="2881" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2858">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s" s="2859">
+        <v>92</v>
+      </c>
+      <c r="C5" t="n" s="2860">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="2882" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E5" s="2883" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2861">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s" s="2862">
+        <v>19</v>
+      </c>
+      <c r="C6" t="n" s="2863">
+        <v>3.0</v>
+      </c>
+      <c r="D6" s="2884" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E6" s="2885" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2864">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="2865">
+        <v>85</v>
+      </c>
+      <c r="C7" t="n" s="2866">
+        <v>3.0</v>
+      </c>
+      <c r="D7" s="2886" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E7" s="2887" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2867">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="2868">
+        <v>71</v>
+      </c>
+      <c r="C8" t="n" s="2869">
+        <v>3.0</v>
+      </c>
+      <c r="D8" s="2888" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E8" s="2889" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2870">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s" s="2871">
+        <v>35</v>
+      </c>
+      <c r="C9" t="n" s="2872">
+        <v>2.0</v>
+      </c>
+      <c r="D9" s="2890" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E9" s="2891" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2873">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s" s="2874">
+        <v>147</v>
+      </c>
+      <c r="C10" t="n" s="2875">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="2892" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E10" s="2893" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2894">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s" s="2895">
+        <v>64</v>
+      </c>
+      <c r="C11" t="n" s="2896">
+        <v>3.0</v>
+      </c>
+      <c r="D11" s="2951" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E11" s="2952" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2897">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s" s="2898">
+        <v>103</v>
+      </c>
+      <c r="C12" t="n" s="2899">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="2953" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E12" s="2954" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2900">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s" s="2901">
+        <v>10</v>
+      </c>
+      <c r="C13" t="n" s="2902">
+        <v>3.0</v>
+      </c>
+      <c r="D13" s="2955" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E13" s="2956" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2903">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s" s="2904">
+        <v>34</v>
+      </c>
+      <c r="C14" t="n" s="2905">
+        <v>3.0</v>
+      </c>
+      <c r="D14" s="2957" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E14" s="2958" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2906">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s" s="2907">
+        <v>116</v>
+      </c>
+      <c r="C15" t="n" s="2908">
+        <v>2.0</v>
+      </c>
+      <c r="D15" s="2959" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E15" s="2960" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2909">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s" s="2910">
+        <v>76</v>
+      </c>
+      <c r="C16" t="n" s="2911">
+        <v>2.0</v>
+      </c>
+      <c r="D16" s="2961" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E16" s="2962" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2912">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s" s="2913">
+        <v>106</v>
+      </c>
+      <c r="C17" t="n" s="2914">
+        <v>2.0</v>
+      </c>
+      <c r="D17" s="2963" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E17" s="2964" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2915">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s" s="2916">
+        <v>91</v>
+      </c>
+      <c r="C18" t="n" s="2917">
+        <v>2.0</v>
+      </c>
+      <c r="D18" s="2965" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E18" s="2966" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2918">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s" s="2919">
+        <v>72</v>
+      </c>
+      <c r="C19" t="n" s="2920">
+        <v>2.0</v>
+      </c>
+      <c r="D19" s="2967" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E19" s="2968" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2921">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s" s="2922">
+        <v>117</v>
+      </c>
+      <c r="C20" t="n" s="2923">
+        <v>2.0</v>
+      </c>
+      <c r="D20" s="2969" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E20" s="2970" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2924">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s" s="2925">
+        <v>22</v>
+      </c>
+      <c r="C21" t="n" s="2926">
+        <v>2.0</v>
+      </c>
+      <c r="D21" s="2971" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E21" s="2972" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2927">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s" s="2928">
+        <v>122</v>
+      </c>
+      <c r="C22" t="n" s="2929">
+        <v>2.0</v>
+      </c>
+      <c r="D22" s="2973" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E22" s="2974" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2930">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s" s="2931">
+        <v>129</v>
+      </c>
+      <c r="C23" t="n" s="2932">
+        <v>2.0</v>
+      </c>
+      <c r="D23" s="2975" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E23" s="2976" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2933">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s" s="2934">
+        <v>146</v>
+      </c>
+      <c r="C24" t="n" s="2935">
+        <v>3.0</v>
+      </c>
+      <c r="D24" s="2977" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E24" s="2978" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2936">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s" s="2937">
+        <v>61</v>
+      </c>
+      <c r="C25" t="n" s="2938">
+        <v>3.0</v>
+      </c>
+      <c r="D25" s="2979" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E25" s="2980" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2939">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s" s="2940">
+        <v>100</v>
+      </c>
+      <c r="C26" t="n" s="2941">
+        <v>2.0</v>
+      </c>
+      <c r="D26" s="2981" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E26" s="2982" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2942">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s" s="2943">
+        <v>46</v>
+      </c>
+      <c r="C27" t="n" s="2944">
+        <v>2.0</v>
+      </c>
+      <c r="D27" s="2983" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E27" s="2984" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2945">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s" s="2946">
+        <v>138</v>
+      </c>
+      <c r="C28" t="n" s="2947">
+        <v>3.0</v>
+      </c>
+      <c r="D28" s="2985" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E28" s="2986" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2948">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s" s="2949">
+        <v>227</v>
+      </c>
+      <c r="C29" t="n" s="2950">
+        <v>3.0</v>
+      </c>
+      <c r="D29" s="2987" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E29" s="2988" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2989">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s" s="2990">
+        <v>73</v>
+      </c>
+      <c r="C30" t="n" s="2991">
+        <v>2.0</v>
+      </c>
+      <c r="D30" s="3010" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E30" s="3011" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2992">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s" s="2993">
+        <v>131</v>
+      </c>
+      <c r="C31" t="n" s="2994">
+        <v>2.0</v>
+      </c>
+      <c r="D31" s="3012" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E31" s="3013" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2995">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s" s="2996">
+        <v>228</v>
+      </c>
+      <c r="C32" t="n" s="2997">
+        <v>1.0</v>
+      </c>
+      <c r="D32" s="3014" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E32" s="3015" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2998">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s" s="2999">
+        <v>229</v>
+      </c>
+      <c r="C33" t="n" s="3000">
+        <v>2.0</v>
+      </c>
+      <c r="D33" s="3016" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E33" s="3017" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="3001">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s" s="3002">
+        <v>26</v>
+      </c>
+      <c r="C34" t="n" s="3003">
+        <v>1.0</v>
+      </c>
+      <c r="D34" s="3018" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E34" s="3019" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="3004">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s" s="3005">
+        <v>93</v>
+      </c>
+      <c r="C35" t="n" s="3006">
+        <v>2.0</v>
+      </c>
+      <c r="D35" s="3020" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E35" s="3021" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="3007">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s" s="3008">
+        <v>230</v>
+      </c>
+      <c r="C36" t="n" s="3009">
+        <v>1.0</v>
+      </c>
+      <c r="D36" s="3022" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E36" s="3023" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="3024">
+        <v>231</v>
+      </c>
+      <c r="B37" t="s" s="3025">
+        <v>232</v>
+      </c>
+      <c r="C37" t="n" s="3026">
+        <v>1.0</v>
+      </c>
+      <c r="D37" s="3057" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E37" s="3058" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="3027">
+        <v>231</v>
+      </c>
+      <c r="B38" t="s" s="3028">
+        <v>7</v>
+      </c>
+      <c r="C38" t="n" s="3029">
+        <v>3.0</v>
+      </c>
+      <c r="D38" s="3059" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E38" s="3060" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="3030">
+        <v>231</v>
+      </c>
+      <c r="B39" t="s" s="3031">
+        <v>48</v>
+      </c>
+      <c r="C39" t="n" s="3032">
+        <v>2.0</v>
+      </c>
+      <c r="D39" s="3061" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E39" s="3062" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="3033">
+        <v>231</v>
+      </c>
+      <c r="B40" t="s" s="3034">
+        <v>37</v>
+      </c>
+      <c r="C40" t="n" s="3035">
+        <v>2.0</v>
+      </c>
+      <c r="D40" s="3063" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E40" s="3064" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="3036">
+        <v>231</v>
+      </c>
+      <c r="B41" t="s" s="3037">
+        <v>8</v>
+      </c>
+      <c r="C41" t="n" s="3038">
+        <v>2.0</v>
+      </c>
+      <c r="D41" s="3065" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E41" s="3066" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="3039">
+        <v>231</v>
+      </c>
+      <c r="B42" t="s" s="3040">
+        <v>114</v>
+      </c>
+      <c r="C42" t="n" s="3041">
+        <v>1.0</v>
+      </c>
+      <c r="D42" s="3067" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E42" s="3068" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="3042">
+        <v>231</v>
+      </c>
+      <c r="B43" t="s" s="3043">
+        <v>67</v>
+      </c>
+      <c r="C43" t="n" s="3044">
+        <v>2.0</v>
+      </c>
+      <c r="D43" s="3069" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E43" s="3070" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="3045">
+        <v>231</v>
+      </c>
+      <c r="B44" t="s" s="3046">
+        <v>142</v>
+      </c>
+      <c r="C44" t="n" s="3047">
+        <v>2.0</v>
+      </c>
+      <c r="D44" s="3071" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E44" s="3072" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="3048">
+        <v>231</v>
+      </c>
+      <c r="B45" t="s" s="3049">
+        <v>55</v>
+      </c>
+      <c r="C45" t="n" s="3050">
+        <v>2.0</v>
+      </c>
+      <c r="D45" s="3073" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E45" s="3074" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="3051">
+        <v>231</v>
+      </c>
+      <c r="B46" t="s" s="3052">
+        <v>107</v>
+      </c>
+      <c r="C46" t="n" s="3053">
+        <v>2.0</v>
+      </c>
+      <c r="D46" s="3075" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E46" s="3076" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="3054">
+        <v>231</v>
+      </c>
+      <c r="B47" t="s" s="3055">
+        <v>110</v>
+      </c>
+      <c r="C47" t="n" s="3056">
+        <v>3.0</v>
+      </c>
+      <c r="D47" s="3077" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E47" s="3078" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="3079">
+        <v>233</v>
+      </c>
+      <c r="B48" t="s" s="3080">
+        <v>12</v>
+      </c>
+      <c r="C48" t="n" s="3081">
+        <v>5.0</v>
+      </c>
+      <c r="D48" s="3121" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E48" s="3122" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="3082">
+        <v>233</v>
+      </c>
+      <c r="B49" t="s" s="3083">
+        <v>137</v>
+      </c>
+      <c r="C49" t="n" s="3084">
+        <v>4.0</v>
+      </c>
+      <c r="D49" s="3123" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E49" s="3124" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="3085">
+        <v>233</v>
+      </c>
+      <c r="B50" t="s" s="3086">
+        <v>44</v>
+      </c>
+      <c r="C50" t="n" s="3087">
+        <v>4.0</v>
+      </c>
+      <c r="D50" s="3125" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E50" s="3126" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="3088">
+        <v>233</v>
+      </c>
+      <c r="B51" t="s" s="3089">
+        <v>17</v>
+      </c>
+      <c r="C51" t="n" s="3090">
+        <v>4.0</v>
+      </c>
+      <c r="D51" s="3127" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E51" s="3128" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="3091">
+        <v>233</v>
+      </c>
+      <c r="B52" t="s" s="3092">
+        <v>231</v>
+      </c>
+      <c r="C52" t="n" s="3093">
+        <v>4.0</v>
+      </c>
+      <c r="D52" s="3129" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E52" s="3130" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="3094">
+        <v>233</v>
+      </c>
+      <c r="B53" t="s" s="3095">
+        <v>89</v>
+      </c>
+      <c r="C53" t="n" s="3096">
+        <v>3.0</v>
+      </c>
+      <c r="D53" s="3131" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E53" s="3132" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="3097">
+        <v>233</v>
+      </c>
+      <c r="B54" t="s" s="3098">
+        <v>141</v>
+      </c>
+      <c r="C54" t="n" s="3099">
+        <v>4.0</v>
+      </c>
+      <c r="D54" s="3133" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E54" s="3134" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="3100">
+        <v>233</v>
+      </c>
+      <c r="B55" t="s" s="3101">
+        <v>36</v>
+      </c>
+      <c r="C55" t="n" s="3102">
+        <v>4.0</v>
+      </c>
+      <c r="D55" s="3135" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E55" s="3136" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="3103">
+        <v>233</v>
+      </c>
+      <c r="B56" t="s" s="3104">
+        <v>68</v>
+      </c>
+      <c r="C56" t="n" s="3105">
+        <v>3.0</v>
+      </c>
+      <c r="D56" s="3137" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E56" s="3138" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="3106">
+        <v>233</v>
+      </c>
+      <c r="B57" t="s" s="3107">
+        <v>45</v>
+      </c>
+      <c r="C57" t="n" s="3108">
+        <v>3.0</v>
+      </c>
+      <c r="D57" s="3139" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E57" s="3140" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="3109">
+        <v>233</v>
+      </c>
+      <c r="B58" t="s" s="3110">
+        <v>234</v>
+      </c>
+      <c r="C58" t="n" s="3111">
         <v>0.0</v>
       </c>
-      <c r="D2" s="2075" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E2" s="2076" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2051" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2052" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="2053" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="2077" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E3" s="2078" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2054" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2055" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="2056" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="2079" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E4" s="2080" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2057" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2058" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="2059" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="2081" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E5" s="2082" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2060" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2061" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2062" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="2083" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E6" s="2084" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2063" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2064" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="2065" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="2085" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E7" s="2086" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2066" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2067" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="2068" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="2087" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E8" s="2088" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2069" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2070" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2071" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="2089" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E9" s="2090" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2072" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2073" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="2074" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="2091" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E10" s="2092" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2093" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="2094" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="2095" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="2150" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E11" s="2151" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2096" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="2097" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="2098" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D12" s="2152" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E12" s="2153" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2099" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="2100" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2101" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D13" s="2154" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E13" s="2155" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2102" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="2103" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2104" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="2156" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E14" s="2157" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2105" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="2106" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="2107" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D15" s="2158" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E15" s="2159" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2108" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="2109" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="2110" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="2160" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E16" s="2161" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2111" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="2112" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="2113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="2162" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E17" s="2163" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2114" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="2115" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="2116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D18" s="2164" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E18" s="2165" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2117" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="2118" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="2119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D19" s="2166" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E19" s="2167" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2120" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="2121" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="2122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D20" s="2168" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E20" s="2169" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2123" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="2124" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D21" s="2170" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E21" s="2171" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2126" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="2127" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="2128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D22" s="2172" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E22" s="2173" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2129" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="2130" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="2131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D23" s="2174" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E23" s="2175" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2132" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="2133" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="2134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="2176" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E24" s="2177" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2135" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="2136" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="2137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D25" s="2178" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E25" s="2179" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2138" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="2139" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="2140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D26" s="2180" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E26" s="2181" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2141" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="2142" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="2143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D27" s="2182" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E27" s="2183" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2144" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="2145" t="s">
+      <c r="D58" s="3141" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E58" s="3142" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="3112">
+        <v>233</v>
+      </c>
+      <c r="B59" t="s" s="3113">
+        <v>23</v>
+      </c>
+      <c r="C59" t="n" s="3114">
+        <v>4.0</v>
+      </c>
+      <c r="D59" s="3143" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E59" s="3144" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="3115">
+        <v>233</v>
+      </c>
+      <c r="B60" t="s" s="3116">
+        <v>94</v>
+      </c>
+      <c r="C60" t="n" s="3117">
+        <v>4.0</v>
+      </c>
+      <c r="D60" s="3145" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E60" s="3146" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="3118">
+        <v>233</v>
+      </c>
+      <c r="B61" t="s" s="3119">
+        <v>81</v>
+      </c>
+      <c r="C61" t="n" s="3120">
+        <v>3.0</v>
+      </c>
+      <c r="D61" s="3147" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E61" s="3148" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="3149">
+        <v>141</v>
+      </c>
+      <c r="B62" t="s" s="3150">
+        <v>82</v>
+      </c>
+      <c r="C62" t="n" s="3151">
+        <v>2.0</v>
+      </c>
+      <c r="D62" s="3170" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E62" s="3171" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="3152">
+        <v>141</v>
+      </c>
+      <c r="B63" t="s" s="3153">
+        <v>235</v>
+      </c>
+      <c r="C63" t="n" s="3154">
+        <v>2.0</v>
+      </c>
+      <c r="D63" s="3172" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E63" s="3173" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="3155">
+        <v>141</v>
+      </c>
+      <c r="B64" t="s" s="3156">
+        <v>60</v>
+      </c>
+      <c r="C64" t="n" s="3157">
+        <v>2.0</v>
+      </c>
+      <c r="D64" s="3174" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E64" s="3175" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="3158">
+        <v>141</v>
+      </c>
+      <c r="B65" t="s" s="3159">
+        <v>143</v>
+      </c>
+      <c r="C65" t="n" s="3160">
+        <v>1.0</v>
+      </c>
+      <c r="D65" s="3176" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E65" s="3177" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="3161">
+        <v>141</v>
+      </c>
+      <c r="B66" t="s" s="3162">
+        <v>78</v>
+      </c>
+      <c r="C66" t="n" s="3163">
+        <v>2.0</v>
+      </c>
+      <c r="D66" s="3178" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E66" s="3179" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="3164">
+        <v>141</v>
+      </c>
+      <c r="B67" t="s" s="3165">
+        <v>51</v>
+      </c>
+      <c r="C67" t="n" s="3166">
+        <v>2.0</v>
+      </c>
+      <c r="D67" s="3180" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E67" s="3181" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="3167">
+        <v>141</v>
+      </c>
+      <c r="B68" t="s" s="3168">
+        <v>236</v>
+      </c>
+      <c r="C68" t="n" s="3169">
+        <v>1.0</v>
+      </c>
+      <c r="D68" s="3182" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E68" s="3183" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="3184">
+        <v>36</v>
+      </c>
+      <c r="B69" t="s" s="3185">
+        <v>14</v>
+      </c>
+      <c r="C69" t="n" s="3186">
+        <v>1.0</v>
+      </c>
+      <c r="D69" s="3226" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E69" s="3227" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="3187">
+        <v>36</v>
+      </c>
+      <c r="B70" t="s" s="3188">
+        <v>27</v>
+      </c>
+      <c r="C70" t="n" s="3189">
+        <v>2.0</v>
+      </c>
+      <c r="D70" s="3228" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E70" s="3229" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="3190">
+        <v>36</v>
+      </c>
+      <c r="B71" t="s" s="3191">
+        <v>90</v>
+      </c>
+      <c r="C71" t="n" s="3192">
+        <v>2.0</v>
+      </c>
+      <c r="D71" s="3230" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E71" s="3231" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="3193">
+        <v>36</v>
+      </c>
+      <c r="B72" t="s" s="3194">
+        <v>86</v>
+      </c>
+      <c r="C72" t="n" s="3195">
+        <v>2.0</v>
+      </c>
+      <c r="D72" s="3232" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E72" s="3233" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="3196">
+        <v>36</v>
+      </c>
+      <c r="B73" t="s" s="3197">
+        <v>83</v>
+      </c>
+      <c r="C73" t="n" s="3198">
+        <v>1.0</v>
+      </c>
+      <c r="D73" s="3234" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E73" s="3235" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="3199">
+        <v>36</v>
+      </c>
+      <c r="B74" t="s" s="3200">
+        <v>99</v>
+      </c>
+      <c r="C74" t="n" s="3201">
+        <v>2.0</v>
+      </c>
+      <c r="D74" s="3236" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E74" s="3237" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="3202">
+        <v>36</v>
+      </c>
+      <c r="B75" t="s" s="3203">
+        <v>237</v>
+      </c>
+      <c r="C75" t="n" s="3204">
+        <v>1.0</v>
+      </c>
+      <c r="D75" s="3238" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E75" s="3239" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="3205">
+        <v>36</v>
+      </c>
+      <c r="B76" t="s" s="3206">
+        <v>33</v>
+      </c>
+      <c r="C76" t="n" s="3207">
+        <v>2.0</v>
+      </c>
+      <c r="D76" s="3240" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E76" s="3241" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="3208">
+        <v>36</v>
+      </c>
+      <c r="B77" t="s" s="3209">
+        <v>238</v>
+      </c>
+      <c r="C77" t="n" s="3210">
+        <v>3.0</v>
+      </c>
+      <c r="D77" s="3242" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E77" s="3243" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="3211">
+        <v>36</v>
+      </c>
+      <c r="B78" t="s" s="3212">
+        <v>38</v>
+      </c>
+      <c r="C78" t="n" s="3213">
+        <v>2.0</v>
+      </c>
+      <c r="D78" s="3244" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E78" s="3245" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="3214">
+        <v>36</v>
+      </c>
+      <c r="B79" t="s" s="3215">
+        <v>127</v>
+      </c>
+      <c r="C79" t="n" s="3216">
+        <v>2.0</v>
+      </c>
+      <c r="D79" s="3246" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E79" s="3247" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="3217">
+        <v>36</v>
+      </c>
+      <c r="B80" t="s" s="3218">
+        <v>49</v>
+      </c>
+      <c r="C80" t="n" s="3219">
+        <v>1.0</v>
+      </c>
+      <c r="D80" s="3248" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E80" s="3249" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="3220">
+        <v>36</v>
+      </c>
+      <c r="B81" t="s" s="3221">
+        <v>39</v>
+      </c>
+      <c r="C81" t="n" s="3222">
+        <v>2.0</v>
+      </c>
+      <c r="D81" s="3250" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E81" s="3251" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="3223">
+        <v>36</v>
+      </c>
+      <c r="B82" t="s" s="3224">
+        <v>40</v>
+      </c>
+      <c r="C82" t="n" s="3225">
+        <v>1.0</v>
+      </c>
+      <c r="D82" s="3252" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E82" s="3253" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="3254">
+        <v>234</v>
+      </c>
+      <c r="B83" t="s" s="3255">
+        <v>28</v>
+      </c>
+      <c r="C83" t="n" s="3256">
+        <v>3.0</v>
+      </c>
+      <c r="D83" s="3266" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E83" s="3267" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="3257">
+        <v>234</v>
+      </c>
+      <c r="B84" t="s" s="3258">
+        <v>18</v>
+      </c>
+      <c r="C84" t="n" s="3259">
+        <v>3.0</v>
+      </c>
+      <c r="D84" s="3268" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E84" s="3269" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="3260">
+        <v>234</v>
+      </c>
+      <c r="B85" t="s" s="3261">
+        <v>29</v>
+      </c>
+      <c r="C85" t="n" s="3262">
+        <v>2.0</v>
+      </c>
+      <c r="D85" s="3270" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E85" s="3271" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="3263">
+        <v>234</v>
+      </c>
+      <c r="B86" t="s" s="3264">
+        <v>24</v>
+      </c>
+      <c r="C86" t="n" s="3265">
+        <v>2.0</v>
+      </c>
+      <c r="D86" s="3272" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E86" s="3273" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="3274">
+        <v>23</v>
+      </c>
+      <c r="B87" t="s" s="3275">
+        <v>124</v>
+      </c>
+      <c r="C87" t="n" s="3276">
+        <v>1.0</v>
+      </c>
+      <c r="D87" s="3280" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E87" s="3281" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="3277">
+        <v>23</v>
+      </c>
+      <c r="B88" t="s" s="3278">
+        <v>95</v>
+      </c>
+      <c r="C88" t="n" s="3279">
+        <v>2.0</v>
+      </c>
+      <c r="D88" s="3282" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E88" s="3283" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="3284">
         <v>138</v>
       </c>
-      <c r="C28" s="2146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D28" s="2184" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E28" s="2185" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2147" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="2148" t="s">
-        <v>227</v>
-      </c>
-      <c r="C29" s="2149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D29" s="2186" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E29" s="2187" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2188" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="2189" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="2190" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D30" s="2209" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E30" s="2210" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2191" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="2192" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="2193" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D31" s="2211" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E31" s="2212" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2194" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="2195" t="s">
-        <v>228</v>
-      </c>
-      <c r="C32" s="2196" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D32" s="2213" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E32" s="2214" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2197" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="2198" t="s">
-        <v>229</v>
-      </c>
-      <c r="C33" s="2199" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D33" s="2215" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E33" s="2216" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2200" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="2201" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="2202" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D34" s="2217" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E34" s="2218" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2203" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="2204" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="2205" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D35" s="2219" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E35" s="2220" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2206" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="2207" t="s">
-        <v>230</v>
-      </c>
-      <c r="C36" s="2208" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D36" s="2221" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E36" s="2222" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2223" t="s">
-        <v>231</v>
-      </c>
-      <c r="B37" s="2224" t="s">
-        <v>232</v>
-      </c>
-      <c r="C37" s="2225" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D37" s="2256" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="E37" s="2257" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2226" t="s">
-        <v>231</v>
-      </c>
-      <c r="B38" s="2227" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="2228" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D38" s="2258" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="E38" s="2259" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2229" t="s">
-        <v>231</v>
-      </c>
-      <c r="B39" s="2230" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="2231" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D39" s="2260" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="E39" s="2261" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2232" t="s">
-        <v>231</v>
-      </c>
-      <c r="B40" s="2233" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="2234" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D40" s="2262" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="E40" s="2263" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2235" t="s">
-        <v>231</v>
-      </c>
-      <c r="B41" s="2236" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="2237" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D41" s="2264" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="E41" s="2265" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2238" t="s">
-        <v>231</v>
-      </c>
-      <c r="B42" s="2239" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="2240" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D42" s="2266" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="E42" s="2267" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2241" t="s">
-        <v>231</v>
-      </c>
-      <c r="B43" s="2242" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="2243" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D43" s="2268" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="E43" s="2269" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2244" t="s">
-        <v>231</v>
-      </c>
-      <c r="B44" s="2245" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" s="2246" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D44" s="2270" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="E44" s="2271" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2247" t="s">
-        <v>231</v>
-      </c>
-      <c r="B45" s="2248" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="2249" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D45" s="2272" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="E45" s="2273" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2250" t="s">
-        <v>231</v>
-      </c>
-      <c r="B46" s="2251" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="2252" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D46" s="2274" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="E46" s="2275" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2253" t="s">
-        <v>231</v>
-      </c>
-      <c r="B47" s="2254" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="2255" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D47" s="2276" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="E47" s="2277" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2278" t="s">
-        <v>233</v>
-      </c>
-      <c r="B48" s="2279" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="2280" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D48" s="2320" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E48" s="2321" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2281" t="s">
-        <v>233</v>
-      </c>
-      <c r="B49" s="2282" t="s">
-        <v>137</v>
-      </c>
-      <c r="C49" s="2283" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D49" s="2322" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E49" s="2323" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2284" t="s">
-        <v>233</v>
-      </c>
-      <c r="B50" s="2285" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="2286" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D50" s="2324" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E50" s="2325" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2287" t="s">
-        <v>233</v>
-      </c>
-      <c r="B51" s="2288" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="2289" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D51" s="2326" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E51" s="2327" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2290" t="s">
-        <v>233</v>
-      </c>
-      <c r="B52" s="2291" t="s">
-        <v>231</v>
-      </c>
-      <c r="C52" s="2292" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D52" s="2328" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E52" s="2329" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2293" t="s">
-        <v>233</v>
-      </c>
-      <c r="B53" s="2294" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="2295" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D53" s="2330" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E53" s="2331" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2296" t="s">
-        <v>233</v>
-      </c>
-      <c r="B54" s="2297" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" s="2298" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D54" s="2332" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E54" s="2333" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2299" t="s">
-        <v>233</v>
-      </c>
-      <c r="B55" s="2300" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" s="2301" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D55" s="2334" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E55" s="2335" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2302" t="s">
-        <v>233</v>
-      </c>
-      <c r="B56" s="2303" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="2304" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D56" s="2336" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E56" s="2337" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2305" t="s">
-        <v>233</v>
-      </c>
-      <c r="B57" s="2306" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" s="2307" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D57" s="2338" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E57" s="2339" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2308" t="s">
-        <v>233</v>
-      </c>
-      <c r="B58" s="2309" t="s">
-        <v>234</v>
-      </c>
-      <c r="C58" s="2310" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D58" s="2340" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E58" s="2341" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2311" t="s">
-        <v>233</v>
-      </c>
-      <c r="B59" s="2312" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="2313" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D59" s="2342" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E59" s="2343" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2314" t="s">
-        <v>233</v>
-      </c>
-      <c r="B60" s="2315" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="2316" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D60" s="2344" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E60" s="2345" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2317" t="s">
-        <v>233</v>
-      </c>
-      <c r="B61" s="2318" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="2319" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D61" s="2346" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E61" s="2347" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2348" t="s">
-        <v>141</v>
-      </c>
-      <c r="B62" s="2349" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="2350" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D62" s="2369" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E62" s="2370" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2351" t="s">
-        <v>141</v>
-      </c>
-      <c r="B63" s="2352" t="s">
-        <v>235</v>
-      </c>
-      <c r="C63" s="2353" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D63" s="2371" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E63" s="2372" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2354" t="s">
-        <v>141</v>
-      </c>
-      <c r="B64" s="2355" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="2356" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D64" s="2373" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E64" s="2374" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2357" t="s">
-        <v>141</v>
-      </c>
-      <c r="B65" s="2358" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" s="2359" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D65" s="2375" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E65" s="2376" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2360" t="s">
-        <v>141</v>
-      </c>
-      <c r="B66" s="2361" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="2362" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D66" s="2377" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E66" s="2378" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2363" t="s">
-        <v>141</v>
-      </c>
-      <c r="B67" s="2364" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" s="2365" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D67" s="2379" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E67" s="2380" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2366" t="s">
-        <v>141</v>
-      </c>
-      <c r="B68" s="2367" t="s">
-        <v>236</v>
-      </c>
-      <c r="C68" s="2368" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D68" s="2381" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E68" s="2382" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2383" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" s="2384" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="2385" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D69" s="2425" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E69" s="2426" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2386" t="s">
-        <v>36</v>
-      </c>
-      <c r="B70" s="2387" t="s">
-        <v>27</v>
-      </c>
-      <c r="C70" s="2388" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D70" s="2427" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E70" s="2428" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2389" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" s="2390" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" s="2391" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D71" s="2429" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E71" s="2430" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2392" t="s">
-        <v>36</v>
-      </c>
-      <c r="B72" s="2393" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" s="2394" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D72" s="2431" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E72" s="2432" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2395" t="s">
-        <v>36</v>
-      </c>
-      <c r="B73" s="2396" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" s="2397" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D73" s="2433" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E73" s="2434" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2398" t="s">
-        <v>36</v>
-      </c>
-      <c r="B74" s="2399" t="s">
-        <v>99</v>
-      </c>
-      <c r="C74" s="2400" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D74" s="2435" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E74" s="2436" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2401" t="s">
-        <v>36</v>
-      </c>
-      <c r="B75" s="2402" t="s">
-        <v>237</v>
-      </c>
-      <c r="C75" s="2403" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D75" s="2437" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E75" s="2438" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2404" t="s">
-        <v>36</v>
-      </c>
-      <c r="B76" s="2405" t="s">
-        <v>33</v>
-      </c>
-      <c r="C76" s="2406" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D76" s="2439" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E76" s="2440" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2407" t="s">
-        <v>36</v>
-      </c>
-      <c r="B77" s="2408" t="s">
-        <v>238</v>
-      </c>
-      <c r="C77" s="2409" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D77" s="2441" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E77" s="2442" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2410" t="s">
-        <v>36</v>
-      </c>
-      <c r="B78" s="2411" t="s">
-        <v>38</v>
-      </c>
-      <c r="C78" s="2412" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D78" s="2443" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E78" s="2444" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2413" t="s">
-        <v>36</v>
-      </c>
-      <c r="B79" s="2414" t="s">
-        <v>127</v>
-      </c>
-      <c r="C79" s="2415" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D79" s="2445" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E79" s="2446" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2416" t="s">
-        <v>36</v>
-      </c>
-      <c r="B80" s="2417" t="s">
-        <v>49</v>
-      </c>
-      <c r="C80" s="2418" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D80" s="2447" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E80" s="2448" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2419" t="s">
-        <v>36</v>
-      </c>
-      <c r="B81" s="2420" t="s">
-        <v>39</v>
-      </c>
-      <c r="C81" s="2421" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D81" s="2449" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E81" s="2450" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2422" t="s">
-        <v>36</v>
-      </c>
-      <c r="B82" s="2423" t="s">
-        <v>40</v>
-      </c>
-      <c r="C82" s="2424" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D82" s="2451" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E82" s="2452" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2453" t="s">
-        <v>234</v>
-      </c>
-      <c r="B83" s="2454" t="s">
-        <v>28</v>
-      </c>
-      <c r="C83" s="2455" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D83" s="2465" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E83" s="2466" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2456" t="s">
-        <v>234</v>
-      </c>
-      <c r="B84" s="2457" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="2458" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D84" s="2467" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E84" s="2468" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2459" t="s">
-        <v>234</v>
-      </c>
-      <c r="B85" s="2460" t="s">
-        <v>29</v>
-      </c>
-      <c r="C85" s="2461" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D85" s="2469" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E85" s="2470" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2462" t="s">
-        <v>234</v>
-      </c>
-      <c r="B86" s="2463" t="s">
-        <v>24</v>
-      </c>
-      <c r="C86" s="2464" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D86" s="2471" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E86" s="2472" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2473" t="s">
-        <v>23</v>
-      </c>
-      <c r="B87" s="2474" t="s">
-        <v>124</v>
-      </c>
-      <c r="C87" s="2475" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D87" s="2479" t="n">
+      <c r="B89" t="s" s="3285">
+        <v>123</v>
+      </c>
+      <c r="C89" t="n" s="3286">
+        <v>1.0</v>
+      </c>
+      <c r="D89" s="3290" t="n">
         <v>2.0</v>
       </c>
-      <c r="E87" s="2480" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2476" t="s">
-        <v>23</v>
-      </c>
-      <c r="B88" s="2477" t="s">
-        <v>95</v>
-      </c>
-      <c r="C88" s="2478" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D88" s="2481" t="n">
+      <c r="E89" s="3291" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="3287">
+        <v>138</v>
+      </c>
+      <c r="B90" t="s" s="3288">
+        <v>43</v>
+      </c>
+      <c r="C90" t="n" s="3289">
         <v>2.0</v>
       </c>
-      <c r="E88" s="2482" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2483" t="s">
-        <v>138</v>
-      </c>
-      <c r="B89" s="2484" t="s">
-        <v>123</v>
-      </c>
-      <c r="C89" s="2485" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D89" s="2489" t="n">
+      <c r="D90" s="3292" t="n">
         <v>2.0</v>
       </c>
-      <c r="E89" s="2490" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2486" t="s">
-        <v>138</v>
-      </c>
-      <c r="B90" s="2487" t="s">
-        <v>43</v>
-      </c>
-      <c r="C90" s="2488" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D90" s="2491" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E90" s="2492" t="s">
-        <v>226</v>
+      <c r="E90" s="3293" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
